--- a/Data/SurveyResp_20221117_Questions_and_Answers.xlsx
+++ b/Data/SurveyResp_20221117_Questions_and_Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GFZ\OpenEM\SurveyReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B9782E-ED9A-47CC-B124-378C023661A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA92822-2F84-4A36-80D4-18DD19E1DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{9E5E105D-2082-4947-BDC7-74A8E7ECD662}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="256">
   <si>
     <t>Block</t>
   </si>
@@ -745,9 +745,6 @@
     <t>Question:</t>
   </si>
   <si>
-    <t>Question Number:</t>
-  </si>
-  <si>
     <t>What type of geospatial data do you produce / provide?</t>
   </si>
   <si>
@@ -824,6 +821,12 @@
   </si>
   <si>
     <t>Any other barrier(s) to produce more open data? (optional)</t>
+  </si>
+  <si>
+    <t>Topic:</t>
+  </si>
+  <si>
+    <t>0raBo</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1070,12 +1073,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,23 +1284,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1224,6 +1345,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,56 +1360,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,7 +1729,7 @@
     <col min="8" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="61.8" thickBot="1">
+    <row r="1" spans="1:10" ht="41.4" thickBot="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -1632,26 +1742,26 @@
       <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="51">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="66">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -1668,10 +1778,10 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1686,10 +1796,10 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="52"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1704,10 +1814,10 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="52"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1722,10 +1832,10 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="52"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1740,10 +1850,10 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1758,10 +1868,10 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="52"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1776,10 +1886,10 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="52"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1794,10 +1904,10 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="52"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1812,10 +1922,10 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="52"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,10 +1940,10 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="52"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1848,10 +1958,10 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="52"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,10 +1976,10 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="52"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1884,10 +1994,10 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="52"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1902,10 +2012,10 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="52"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1920,10 +2030,10 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,10 +2048,10 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1956,10 +2066,10 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1974,12 +2084,12 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="43">
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="60">
         <v>2</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="60" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1996,10 +2106,10 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
@@ -2015,10 +2125,10 @@
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="7" t="s">
         <v>30</v>
       </c>
@@ -2034,10 +2144,10 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="7" t="s">
         <v>31</v>
       </c>
@@ -2051,15 +2161,15 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="13"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
@@ -2075,10 +2185,10 @@
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="7" t="s">
         <v>33</v>
       </c>
@@ -2094,10 +2204,10 @@
       <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="7" t="s">
         <v>34</v>
       </c>
@@ -2113,10 +2223,10 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="7" t="s">
         <v>35</v>
       </c>
@@ -2132,12 +2242,12 @@
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="43">
+      <c r="A28" s="63"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="60">
         <v>3</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="60" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -2154,10 +2264,10 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="7" t="s">
         <v>32</v>
       </c>
@@ -2173,10 +2283,10 @@
       <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="7" t="s">
         <v>38</v>
       </c>
@@ -2192,10 +2302,10 @@
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="7" t="s">
         <v>39</v>
       </c>
@@ -2211,10 +2321,10 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="7" t="s">
         <v>40</v>
       </c>
@@ -2230,10 +2340,10 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="52"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="7" t="s">
         <v>41</v>
       </c>
@@ -2249,12 +2359,12 @@
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="52"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="39">
+      <c r="A34" s="63"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="51">
         <v>4</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="51" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2271,10 +2381,10 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="52"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2290,10 +2400,10 @@
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="52"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2309,10 +2419,10 @@
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="52"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,10 +2438,10 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="52"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2347,10 +2457,10 @@
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="52"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
@@ -2365,12 +2475,12 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="52"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="43">
+      <c r="A40" s="63"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="60">
         <v>5</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="60" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -2387,10 +2497,10 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="52"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="7" t="s">
         <v>51</v>
       </c>
@@ -2405,10 +2515,10 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="52"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="7" t="s">
         <v>52</v>
       </c>
@@ -2423,10 +2533,10 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="52"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="7" t="s">
         <v>53</v>
       </c>
@@ -2441,10 +2551,10 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="52"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="7" t="s">
         <v>54</v>
       </c>
@@ -2459,10 +2569,10 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="52"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="7" t="s">
         <v>55</v>
       </c>
@@ -2477,10 +2587,10 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="52"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="7" t="s">
         <v>56</v>
       </c>
@@ -2495,10 +2605,10 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="52"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="7" t="s">
         <v>57</v>
       </c>
@@ -2513,10 +2623,10 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="52"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="7" t="s">
         <v>58</v>
       </c>
@@ -2531,10 +2641,10 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="52"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="7" t="s">
         <v>32</v>
       </c>
@@ -2549,10 +2659,10 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="52"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="7" t="s">
         <v>59</v>
       </c>
@@ -2567,10 +2677,10 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="52"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="7" t="s">
         <v>60</v>
       </c>
@@ -2585,12 +2695,12 @@
       <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="52"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="39">
+      <c r="A52" s="63"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="51">
         <v>6</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2607,10 +2717,10 @@
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="52"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="1" t="s">
         <v>64</v>
       </c>
@@ -2626,10 +2736,10 @@
       <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="52"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="1" t="s">
         <v>65</v>
       </c>
@@ -2645,10 +2755,10 @@
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="52"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="1" t="s">
         <v>66</v>
       </c>
@@ -2664,10 +2774,10 @@
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="52"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,10 +2793,10 @@
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="52"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="1" t="s">
         <v>68</v>
       </c>
@@ -2702,12 +2812,12 @@
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="43">
+      <c r="A58" s="63"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="60">
         <v>7</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="60" t="s">
         <v>69</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -2724,10 +2834,10 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="52"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="7" t="s">
         <v>71</v>
       </c>
@@ -2742,10 +2852,10 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="53"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="8" t="s">
         <v>72</v>
       </c>
@@ -2760,16 +2870,16 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="42">
+      <c r="A61" s="54">
         <v>2</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="51" t="s">
         <v>85</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2788,10 +2898,10 @@
       <c r="J61" s="15"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="42"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="1" t="s">
         <v>74</v>
       </c>
@@ -2808,10 +2918,10 @@
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="42"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
       <c r="E63" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,10 +2938,10 @@
       <c r="J63" s="15"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="42"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="1" t="s">
         <v>74</v>
       </c>
@@ -2848,10 +2958,10 @@
       <c r="J64" s="15"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="42"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
       <c r="E65" s="1" t="s">
         <v>74</v>
       </c>
@@ -2868,10 +2978,10 @@
       <c r="J65" s="15"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="42"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="1" t="s">
         <v>74</v>
       </c>
@@ -2888,10 +2998,10 @@
       <c r="J66" s="15"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="42"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="1" t="s">
         <v>74</v>
       </c>
@@ -2908,10 +3018,10 @@
       <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="42"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,10 +3038,10 @@
       <c r="J68" s="15"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="42"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
       <c r="E69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2948,12 +3058,12 @@
       <c r="J69" s="15"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="42"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="40" t="s">
+      <c r="A70" s="54"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="53" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="29" t="s">
@@ -2972,10 +3082,10 @@
       <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="42"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="29" t="s">
         <v>83</v>
       </c>
@@ -2992,10 +3102,10 @@
       <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="42"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="29" t="s">
         <v>83</v>
       </c>
@@ -3012,10 +3122,10 @@
       <c r="J72" s="15"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="42"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="29" t="s">
         <v>83</v>
       </c>
@@ -3032,10 +3142,10 @@
       <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="42"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="29" t="s">
         <v>83</v>
       </c>
@@ -3052,10 +3162,10 @@
       <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="42"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="29" t="s">
         <v>83</v>
       </c>
@@ -3072,10 +3182,10 @@
       <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="42"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="29" t="s">
         <v>83</v>
       </c>
@@ -3092,10 +3202,10 @@
       <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="42"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="29" t="s">
         <v>83</v>
       </c>
@@ -3112,12 +3222,12 @@
       <c r="J77" s="15"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="42"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="39" t="s">
+      <c r="A78" s="54"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="51" t="s">
         <v>93</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3136,10 +3246,10 @@
       <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="42"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
       <c r="E79" s="1" t="s">
         <v>74</v>
       </c>
@@ -3156,10 +3266,10 @@
       <c r="J79" s="15"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="42"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
       <c r="E80" s="1" t="s">
         <v>74</v>
       </c>
@@ -3176,10 +3286,10 @@
       <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="42"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
       <c r="E81" s="1" t="s">
         <v>74</v>
       </c>
@@ -3196,10 +3306,10 @@
       <c r="J81" s="15"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="42"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
       <c r="E82" s="1" t="s">
         <v>74</v>
       </c>
@@ -3216,10 +3326,10 @@
       <c r="J82" s="15"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="42"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="1" t="s">
         <v>74</v>
       </c>
@@ -3236,10 +3346,10 @@
       <c r="J83" s="15"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="42"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
       <c r="E84" s="1" t="s">
         <v>74</v>
       </c>
@@ -3256,12 +3366,12 @@
       <c r="J84" s="15"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="42"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="40" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="53" t="s">
         <v>92</v>
       </c>
       <c r="E85" s="29" t="s">
@@ -3280,10 +3390,10 @@
       <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="42"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="29" t="s">
         <v>83</v>
       </c>
@@ -3300,10 +3410,10 @@
       <c r="J86" s="15"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="42"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="29" t="s">
         <v>83</v>
       </c>
@@ -3320,10 +3430,10 @@
       <c r="J87" s="15"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="42"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="29" t="s">
         <v>83</v>
       </c>
@@ -3340,10 +3450,10 @@
       <c r="J88" s="15"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="42"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
       <c r="E89" s="29" t="s">
         <v>83</v>
       </c>
@@ -3360,12 +3470,12 @@
       <c r="J89" s="15"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="42"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="39" t="s">
+      <c r="A90" s="54"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="39" t="s">
+      <c r="D90" s="51" t="s">
         <v>99</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -3386,10 +3496,10 @@
       <c r="J90" s="15"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="42"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
       <c r="E91" s="1" t="s">
         <v>102</v>
       </c>
@@ -3408,10 +3518,10 @@
       <c r="J91" s="16"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="42"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
       <c r="E92" s="1" t="s">
         <v>102</v>
       </c>
@@ -3430,10 +3540,10 @@
       <c r="J92" s="16"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="42"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
       <c r="E93" s="1" t="s">
         <v>102</v>
       </c>
@@ -3452,10 +3562,10 @@
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="42"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="1" t="s">
         <v>102</v>
       </c>
@@ -3474,10 +3584,10 @@
       <c r="J94" s="16"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="42"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
       <c r="E95" s="1" t="s">
         <v>102</v>
       </c>
@@ -3496,10 +3606,10 @@
       <c r="J95" s="16"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="42"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
       <c r="E96" s="1" t="s">
         <v>102</v>
       </c>
@@ -3518,10 +3628,10 @@
       <c r="J96" s="16"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="42"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
       <c r="E97" s="1" t="s">
         <v>102</v>
       </c>
@@ -3540,10 +3650,10 @@
       <c r="J97" s="16"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="42"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="1" t="s">
         <v>102</v>
       </c>
@@ -3562,10 +3672,10 @@
       <c r="J98" s="16"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="42"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
       <c r="E99" s="1" t="s">
         <v>102</v>
       </c>
@@ -3584,10 +3694,10 @@
       <c r="J99" s="16"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="42"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="1" t="s">
         <v>102</v>
       </c>
@@ -3606,10 +3716,10 @@
       <c r="J100" s="16"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="42"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3628,10 +3738,10 @@
       <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="42"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
       <c r="E102" s="1" t="s">
         <v>102</v>
       </c>
@@ -3650,10 +3760,10 @@
       <c r="J102" s="16"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="42"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="1" t="s">
         <v>102</v>
       </c>
@@ -3672,10 +3782,10 @@
       <c r="J103" s="16"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="42"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
       <c r="E104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3694,10 +3804,10 @@
       <c r="J104" s="16"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="42"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
       <c r="E105" s="1" t="s">
         <v>102</v>
       </c>
@@ -3716,10 +3826,10 @@
       <c r="J105" s="16"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="42"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
       <c r="E106" s="1" t="s">
         <v>102</v>
       </c>
@@ -3738,10 +3848,10 @@
       <c r="J106" s="16"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="42"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="1" t="s">
         <v>102</v>
       </c>
@@ -3760,10 +3870,10 @@
       <c r="J107" s="16"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="42"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="51"/>
       <c r="E108" s="1" t="s">
         <v>102</v>
       </c>
@@ -3782,10 +3892,10 @@
       <c r="J108" s="16"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="42"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
       <c r="E109" s="1" t="s">
         <v>102</v>
       </c>
@@ -3804,10 +3914,10 @@
       <c r="J109" s="16"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="42"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="1" t="s">
         <v>102</v>
       </c>
@@ -3826,10 +3936,10 @@
       <c r="J110" s="16"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="42"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="1" t="s">
         <v>102</v>
       </c>
@@ -3848,10 +3958,10 @@
       <c r="J111" s="16"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="42"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
       <c r="E112" s="1" t="s">
         <v>102</v>
       </c>
@@ -3870,10 +3980,10 @@
       <c r="J112" s="16"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="42"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
       <c r="E113" s="1" t="s">
         <v>102</v>
       </c>
@@ -3892,10 +4002,10 @@
       <c r="J113" s="16"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="42"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
       <c r="E114" s="1" t="s">
         <v>102</v>
       </c>
@@ -3914,10 +4024,10 @@
       <c r="J114" s="16"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="42"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
       <c r="E115" s="1" t="s">
         <v>102</v>
       </c>
@@ -3936,10 +4046,10 @@
       <c r="J115" s="16"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="42"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
       <c r="E116" s="1" t="s">
         <v>102</v>
       </c>
@@ -3958,10 +4068,10 @@
       <c r="J116" s="16"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="42"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="51"/>
       <c r="E117" s="1" t="s">
         <v>102</v>
       </c>
@@ -3980,10 +4090,10 @@
       <c r="J117" s="16"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="42"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="51"/>
+      <c r="D118" s="51"/>
       <c r="E118" s="1" t="s">
         <v>102</v>
       </c>
@@ -4002,10 +4112,10 @@
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="42"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
       <c r="E119" s="1" t="s">
         <v>102</v>
       </c>
@@ -4024,10 +4134,10 @@
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="42"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
       <c r="E120" s="1" t="s">
         <v>102</v>
       </c>
@@ -4046,10 +4156,10 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="42"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
       <c r="E121" s="1" t="s">
         <v>102</v>
       </c>
@@ -4068,10 +4178,10 @@
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="42"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
       <c r="E122" s="1" t="s">
         <v>102</v>
       </c>
@@ -4090,10 +4200,10 @@
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="42"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
       <c r="E123" s="1" t="s">
         <v>102</v>
       </c>
@@ -4112,10 +4222,10 @@
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="42"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="51"/>
       <c r="E124" s="1" t="s">
         <v>102</v>
       </c>
@@ -4134,10 +4244,10 @@
       <c r="J124" s="16"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="42"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="51"/>
       <c r="E125" s="1" t="s">
         <v>102</v>
       </c>
@@ -4156,10 +4266,10 @@
       <c r="J125" s="16"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="42"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
       <c r="E126" s="1" t="s">
         <v>102</v>
       </c>
@@ -4178,10 +4288,10 @@
       <c r="J126" s="16"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="42"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
       <c r="E127" s="1" t="s">
         <v>102</v>
       </c>
@@ -4200,10 +4310,10 @@
       <c r="J127" s="16"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="42"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
       <c r="E128" s="1" t="s">
         <v>102</v>
       </c>
@@ -4222,10 +4332,10 @@
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="42"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
       <c r="E129" s="1" t="s">
         <v>102</v>
       </c>
@@ -4244,10 +4354,10 @@
       <c r="J129" s="16"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="42"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
+      <c r="A130" s="54"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
       <c r="E130" s="1" t="s">
         <v>102</v>
       </c>
@@ -4266,10 +4376,10 @@
       <c r="J130" s="16"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="42"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
+      <c r="A131" s="54"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
       <c r="E131" s="1" t="s">
         <v>102</v>
       </c>
@@ -4288,10 +4398,10 @@
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="42"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
       <c r="E132" s="1" t="s">
         <v>102</v>
       </c>
@@ -4310,12 +4420,12 @@
       <c r="J132" s="27"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="42"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="40" t="s">
+      <c r="A133" s="54"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D133" s="40" t="s">
+      <c r="D133" s="53" t="s">
         <v>119</v>
       </c>
       <c r="E133" s="29" t="s">
@@ -4336,10 +4446,10 @@
       <c r="J133" s="27"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="42"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="40"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
       <c r="E134" s="29" t="s">
         <v>83</v>
       </c>
@@ -4358,10 +4468,10 @@
       <c r="J134" s="27"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="42"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="29" t="s">
         <v>83</v>
       </c>
@@ -4380,10 +4490,10 @@
       <c r="J135" s="27"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="42"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="40"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="53"/>
       <c r="E136" s="29" t="s">
         <v>83</v>
       </c>
@@ -4402,10 +4512,10 @@
       <c r="J136" s="27"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="42"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
       <c r="E137" s="29" t="s">
         <v>83</v>
       </c>
@@ -4424,10 +4534,10 @@
       <c r="J137" s="27"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="42"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
       <c r="E138" s="29" t="s">
         <v>83</v>
       </c>
@@ -4446,10 +4556,10 @@
       <c r="J138" s="27"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="42"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
       <c r="E139" s="29" t="s">
         <v>83</v>
       </c>
@@ -4468,10 +4578,10 @@
       <c r="J139" s="27"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="42"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
       <c r="E140" s="29" t="s">
         <v>83</v>
       </c>
@@ -4490,10 +4600,10 @@
       <c r="J140" s="27"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="42"/>
-      <c r="B141" s="46"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="40"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
       <c r="E141" s="29" t="s">
         <v>83</v>
       </c>
@@ -4512,10 +4622,10 @@
       <c r="J141" s="27"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="42"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
+      <c r="A142" s="54"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
       <c r="E142" s="29" t="s">
         <v>83</v>
       </c>
@@ -4534,10 +4644,10 @@
       <c r="J142" s="27"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="42"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
+      <c r="A143" s="54"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="53"/>
       <c r="E143" s="29" t="s">
         <v>83</v>
       </c>
@@ -4556,10 +4666,10 @@
       <c r="J143" s="27"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="42"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="40"/>
+      <c r="A144" s="54"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="53"/>
       <c r="E144" s="29" t="s">
         <v>83</v>
       </c>
@@ -4578,10 +4688,10 @@
       <c r="J144" s="27"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="42"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
+      <c r="A145" s="54"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
       <c r="E145" s="29" t="s">
         <v>83</v>
       </c>
@@ -4600,10 +4710,10 @@
       <c r="J145" s="27"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="42"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
+      <c r="A146" s="54"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
       <c r="E146" s="29" t="s">
         <v>83</v>
       </c>
@@ -4622,10 +4732,10 @@
       <c r="J146" s="27"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="42"/>
-      <c r="B147" s="46"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
       <c r="E147" s="29" t="s">
         <v>83</v>
       </c>
@@ -4644,10 +4754,10 @@
       <c r="J147" s="27"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="42"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="40"/>
+      <c r="A148" s="54"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
       <c r="E148" s="29" t="s">
         <v>83</v>
       </c>
@@ -4666,10 +4776,10 @@
       <c r="J148" s="27"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="42"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="40"/>
+      <c r="A149" s="54"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="53"/>
       <c r="E149" s="29" t="s">
         <v>83</v>
       </c>
@@ -4688,10 +4798,10 @@
       <c r="J149" s="27"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="42"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
       <c r="E150" s="29" t="s">
         <v>83</v>
       </c>
@@ -4710,10 +4820,10 @@
       <c r="J150" s="27"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="42"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="40"/>
+      <c r="A151" s="54"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="53"/>
       <c r="E151" s="29" t="s">
         <v>83</v>
       </c>
@@ -4732,10 +4842,10 @@
       <c r="J151" s="27"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="42"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="40"/>
+      <c r="A152" s="54"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
       <c r="E152" s="29" t="s">
         <v>83</v>
       </c>
@@ -4754,10 +4864,10 @@
       <c r="J152" s="27"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="42"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="40"/>
+      <c r="A153" s="54"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
       <c r="E153" s="29" t="s">
         <v>83</v>
       </c>
@@ -4776,10 +4886,10 @@
       <c r="J153" s="27"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="42"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="40"/>
+      <c r="A154" s="54"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="53"/>
       <c r="E154" s="29" t="s">
         <v>83</v>
       </c>
@@ -4798,10 +4908,10 @@
       <c r="J154" s="27"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="42"/>
-      <c r="B155" s="46"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="40"/>
+      <c r="A155" s="54"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="53"/>
       <c r="E155" s="29" t="s">
         <v>83</v>
       </c>
@@ -4820,10 +4930,10 @@
       <c r="J155" s="27"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="42"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
       <c r="E156" s="29" t="s">
         <v>83</v>
       </c>
@@ -4842,10 +4952,10 @@
       <c r="J156" s="27"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="42"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="40"/>
+      <c r="A157" s="54"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="53"/>
       <c r="E157" s="29" t="s">
         <v>83</v>
       </c>
@@ -4864,10 +4974,10 @@
       <c r="J157" s="27"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="42"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40"/>
+      <c r="A158" s="54"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
       <c r="E158" s="29" t="s">
         <v>83</v>
       </c>
@@ -4886,10 +4996,10 @@
       <c r="J158" s="27"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="42"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40"/>
+      <c r="A159" s="54"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
       <c r="E159" s="29" t="s">
         <v>83</v>
       </c>
@@ -4908,10 +5018,10 @@
       <c r="J159" s="27"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="42"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40"/>
+      <c r="A160" s="54"/>
+      <c r="B160" s="56"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="53"/>
       <c r="E160" s="29" t="s">
         <v>83</v>
       </c>
@@ -4930,10 +5040,10 @@
       <c r="J160" s="27"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="42"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40"/>
+      <c r="A161" s="54"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="53"/>
       <c r="E161" s="29" t="s">
         <v>83</v>
       </c>
@@ -4952,10 +5062,10 @@
       <c r="J161" s="27"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="42"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
+      <c r="A162" s="54"/>
+      <c r="B162" s="56"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="53"/>
       <c r="E162" s="29" t="s">
         <v>83</v>
       </c>
@@ -4974,10 +5084,10 @@
       <c r="J162" s="27"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="42"/>
-      <c r="B163" s="46"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="40"/>
+      <c r="A163" s="54"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="53"/>
       <c r="E163" s="29" t="s">
         <v>83</v>
       </c>
@@ -4996,10 +5106,10 @@
       <c r="J163" s="27"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="42"/>
-      <c r="B164" s="46"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="40"/>
+      <c r="A164" s="54"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="53"/>
       <c r="E164" s="29" t="s">
         <v>83</v>
       </c>
@@ -5018,10 +5128,10 @@
       <c r="J164" s="27"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="42"/>
-      <c r="B165" s="46"/>
-      <c r="C165" s="40"/>
-      <c r="D165" s="40"/>
+      <c r="A165" s="54"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="53"/>
       <c r="E165" s="29" t="s">
         <v>83</v>
       </c>
@@ -5040,10 +5150,10 @@
       <c r="J165" s="27"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="42"/>
-      <c r="B166" s="46"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="53"/>
       <c r="E166" s="29" t="s">
         <v>83</v>
       </c>
@@ -5062,10 +5172,10 @@
       <c r="J166" s="27"/>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="42"/>
-      <c r="B167" s="46"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="56"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="53"/>
       <c r="E167" s="29" t="s">
         <v>83</v>
       </c>
@@ -5084,10 +5194,10 @@
       <c r="J167" s="27"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="42"/>
-      <c r="B168" s="46"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
+      <c r="A168" s="54"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="53"/>
       <c r="E168" s="29" t="s">
         <v>83</v>
       </c>
@@ -5106,10 +5216,10 @@
       <c r="J168" s="27"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="42"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="40"/>
+      <c r="A169" s="54"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="53"/>
       <c r="E169" s="29" t="s">
         <v>83</v>
       </c>
@@ -5128,10 +5238,10 @@
       <c r="J169" s="27"/>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="42"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
+      <c r="A170" s="54"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="53"/>
       <c r="E170" s="29" t="s">
         <v>83</v>
       </c>
@@ -5150,10 +5260,10 @@
       <c r="J170" s="27"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="42"/>
-      <c r="B171" s="46"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="53"/>
       <c r="E171" s="29" t="s">
         <v>83</v>
       </c>
@@ -5172,10 +5282,10 @@
       <c r="J171" s="27"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="42"/>
-      <c r="B172" s="46"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
+      <c r="A172" s="54"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
       <c r="E172" s="29" t="s">
         <v>83</v>
       </c>
@@ -5194,10 +5304,10 @@
       <c r="J172" s="27"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="42"/>
-      <c r="B173" s="46"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="53"/>
       <c r="E173" s="29" t="s">
         <v>83</v>
       </c>
@@ -5216,10 +5326,10 @@
       <c r="J173" s="27"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="42"/>
-      <c r="B174" s="46"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="53"/>
       <c r="E174" s="29" t="s">
         <v>83</v>
       </c>
@@ -5238,10 +5348,10 @@
       <c r="J174" s="27"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="42"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="40"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="56"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
       <c r="E175" s="29" t="s">
         <v>83</v>
       </c>
@@ -5260,10 +5370,10 @@
       <c r="J175" s="27"/>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="42"/>
-      <c r="B176" s="46"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
+      <c r="A176" s="54"/>
+      <c r="B176" s="56"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="53"/>
       <c r="E176" s="29" t="s">
         <v>83</v>
       </c>
@@ -5282,10 +5392,10 @@
       <c r="J176" s="27"/>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="42"/>
-      <c r="B177" s="46"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40"/>
+      <c r="A177" s="54"/>
+      <c r="B177" s="56"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
       <c r="E177" s="29" t="s">
         <v>83</v>
       </c>
@@ -5304,10 +5414,10 @@
       <c r="J177" s="27"/>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="42"/>
-      <c r="B178" s="46"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="40"/>
+      <c r="A178" s="54"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
       <c r="E178" s="29" t="s">
         <v>83</v>
       </c>
@@ -5326,10 +5436,10 @@
       <c r="J178" s="27"/>
     </row>
     <row r="179" spans="1:10">
-      <c r="A179" s="42"/>
-      <c r="B179" s="46"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="40"/>
+      <c r="A179" s="54"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
       <c r="E179" s="29" t="s">
         <v>83</v>
       </c>
@@ -5348,10 +5458,10 @@
       <c r="J179" s="27"/>
     </row>
     <row r="180" spans="1:10">
-      <c r="A180" s="42"/>
-      <c r="B180" s="46"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="40"/>
+      <c r="A180" s="54"/>
+      <c r="B180" s="56"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
       <c r="E180" s="29" t="s">
         <v>83</v>
       </c>
@@ -5370,10 +5480,10 @@
       <c r="J180" s="27"/>
     </row>
     <row r="181" spans="1:10">
-      <c r="A181" s="42"/>
-      <c r="B181" s="46"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="40"/>
+      <c r="A181" s="54"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
       <c r="E181" s="29" t="s">
         <v>83</v>
       </c>
@@ -5392,10 +5502,10 @@
       <c r="J181" s="27"/>
     </row>
     <row r="182" spans="1:10">
-      <c r="A182" s="42"/>
-      <c r="B182" s="46"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="40"/>
+      <c r="A182" s="54"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
       <c r="E182" s="29" t="s">
         <v>83</v>
       </c>
@@ -5414,10 +5524,10 @@
       <c r="J182" s="27"/>
     </row>
     <row r="183" spans="1:10">
-      <c r="A183" s="42"/>
-      <c r="B183" s="46"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="40"/>
+      <c r="A183" s="54"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
       <c r="E183" s="29" t="s">
         <v>83</v>
       </c>
@@ -5436,12 +5546,12 @@
       <c r="J183" s="27"/>
     </row>
     <row r="184" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="46"/>
-      <c r="C184" s="39" t="s">
+      <c r="A184" s="54"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D184" s="39" t="s">
+      <c r="D184" s="51" t="s">
         <v>133</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -5462,10 +5572,10 @@
       <c r="J184" s="15"/>
     </row>
     <row r="185" spans="1:10">
-      <c r="A185" s="42"/>
-      <c r="B185" s="46"/>
-      <c r="C185" s="39"/>
-      <c r="D185" s="39"/>
+      <c r="A185" s="54"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="51"/>
+      <c r="D185" s="51"/>
       <c r="E185" s="1" t="s">
         <v>102</v>
       </c>
@@ -5484,10 +5594,10 @@
       <c r="J185" s="15"/>
     </row>
     <row r="186" spans="1:10">
-      <c r="A186" s="42"/>
-      <c r="B186" s="46"/>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
+      <c r="A186" s="54"/>
+      <c r="B186" s="56"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
       <c r="E186" s="1" t="s">
         <v>102</v>
       </c>
@@ -5506,10 +5616,10 @@
       <c r="J186" s="15"/>
     </row>
     <row r="187" spans="1:10">
-      <c r="A187" s="42"/>
-      <c r="B187" s="46"/>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
+      <c r="A187" s="54"/>
+      <c r="B187" s="56"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="51"/>
       <c r="E187" s="1" t="s">
         <v>102</v>
       </c>
@@ -5528,10 +5638,10 @@
       <c r="J187" s="15"/>
     </row>
     <row r="188" spans="1:10">
-      <c r="A188" s="42"/>
-      <c r="B188" s="46"/>
-      <c r="C188" s="39"/>
-      <c r="D188" s="39"/>
+      <c r="A188" s="54"/>
+      <c r="B188" s="56"/>
+      <c r="C188" s="51"/>
+      <c r="D188" s="51"/>
       <c r="E188" s="1" t="s">
         <v>102</v>
       </c>
@@ -5550,10 +5660,10 @@
       <c r="J188" s="15"/>
     </row>
     <row r="189" spans="1:10">
-      <c r="A189" s="42"/>
-      <c r="B189" s="46"/>
-      <c r="C189" s="39"/>
-      <c r="D189" s="39"/>
+      <c r="A189" s="54"/>
+      <c r="B189" s="56"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
       <c r="E189" s="1" t="s">
         <v>102</v>
       </c>
@@ -5572,10 +5682,10 @@
       <c r="J189" s="15"/>
     </row>
     <row r="190" spans="1:10">
-      <c r="A190" s="42"/>
-      <c r="B190" s="46"/>
-      <c r="C190" s="39"/>
-      <c r="D190" s="39"/>
+      <c r="A190" s="54"/>
+      <c r="B190" s="56"/>
+      <c r="C190" s="51"/>
+      <c r="D190" s="51"/>
       <c r="E190" s="1" t="s">
         <v>102</v>
       </c>
@@ -5594,10 +5704,10 @@
       <c r="J190" s="15"/>
     </row>
     <row r="191" spans="1:10">
-      <c r="A191" s="42"/>
-      <c r="B191" s="46"/>
-      <c r="C191" s="39"/>
-      <c r="D191" s="39"/>
+      <c r="A191" s="54"/>
+      <c r="B191" s="56"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
       <c r="E191" s="1" t="s">
         <v>102</v>
       </c>
@@ -5616,10 +5726,10 @@
       <c r="J191" s="15"/>
     </row>
     <row r="192" spans="1:10">
-      <c r="A192" s="42"/>
-      <c r="B192" s="46"/>
-      <c r="C192" s="39"/>
-      <c r="D192" s="39"/>
+      <c r="A192" s="54"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
       <c r="E192" s="1" t="s">
         <v>102</v>
       </c>
@@ -5638,10 +5748,10 @@
       <c r="J192" s="15"/>
     </row>
     <row r="193" spans="1:10">
-      <c r="A193" s="42"/>
-      <c r="B193" s="46"/>
-      <c r="C193" s="39"/>
-      <c r="D193" s="39"/>
+      <c r="A193" s="54"/>
+      <c r="B193" s="56"/>
+      <c r="C193" s="51"/>
+      <c r="D193" s="51"/>
       <c r="E193" s="1" t="s">
         <v>102</v>
       </c>
@@ -5660,10 +5770,10 @@
       <c r="J193" s="15"/>
     </row>
     <row r="194" spans="1:10">
-      <c r="A194" s="42"/>
-      <c r="B194" s="46"/>
-      <c r="C194" s="39"/>
-      <c r="D194" s="39"/>
+      <c r="A194" s="54"/>
+      <c r="B194" s="56"/>
+      <c r="C194" s="51"/>
+      <c r="D194" s="51"/>
       <c r="E194" s="1" t="s">
         <v>102</v>
       </c>
@@ -5682,10 +5792,10 @@
       <c r="J194" s="15"/>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="42"/>
-      <c r="B195" s="46"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="39"/>
+      <c r="A195" s="54"/>
+      <c r="B195" s="56"/>
+      <c r="C195" s="51"/>
+      <c r="D195" s="51"/>
       <c r="E195" s="1" t="s">
         <v>102</v>
       </c>
@@ -5704,10 +5814,10 @@
       <c r="J195" s="15"/>
     </row>
     <row r="196" spans="1:10">
-      <c r="A196" s="42"/>
-      <c r="B196" s="46"/>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
+      <c r="A196" s="54"/>
+      <c r="B196" s="56"/>
+      <c r="C196" s="51"/>
+      <c r="D196" s="51"/>
       <c r="E196" s="1" t="s">
         <v>102</v>
       </c>
@@ -5726,10 +5836,10 @@
       <c r="J196" s="15"/>
     </row>
     <row r="197" spans="1:10">
-      <c r="A197" s="42"/>
-      <c r="B197" s="46"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
+      <c r="A197" s="54"/>
+      <c r="B197" s="56"/>
+      <c r="C197" s="51"/>
+      <c r="D197" s="51"/>
       <c r="E197" s="1" t="s">
         <v>102</v>
       </c>
@@ -5748,10 +5858,10 @@
       <c r="J197" s="15"/>
     </row>
     <row r="198" spans="1:10">
-      <c r="A198" s="42"/>
-      <c r="B198" s="46"/>
-      <c r="C198" s="39"/>
-      <c r="D198" s="39"/>
+      <c r="A198" s="54"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="51"/>
+      <c r="D198" s="51"/>
       <c r="E198" s="1" t="s">
         <v>102</v>
       </c>
@@ -5770,10 +5880,10 @@
       <c r="J198" s="15"/>
     </row>
     <row r="199" spans="1:10">
-      <c r="A199" s="42"/>
-      <c r="B199" s="46"/>
-      <c r="C199" s="39"/>
-      <c r="D199" s="39"/>
+      <c r="A199" s="54"/>
+      <c r="B199" s="56"/>
+      <c r="C199" s="51"/>
+      <c r="D199" s="51"/>
       <c r="E199" s="1" t="s">
         <v>102</v>
       </c>
@@ -5792,10 +5902,10 @@
       <c r="J199" s="15"/>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="42"/>
-      <c r="B200" s="46"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
+      <c r="A200" s="54"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="51"/>
+      <c r="D200" s="51"/>
       <c r="E200" s="1" t="s">
         <v>102</v>
       </c>
@@ -5814,10 +5924,10 @@
       <c r="J200" s="15"/>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="42"/>
-      <c r="B201" s="46"/>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
+      <c r="A201" s="54"/>
+      <c r="B201" s="56"/>
+      <c r="C201" s="51"/>
+      <c r="D201" s="51"/>
       <c r="E201" s="1" t="s">
         <v>102</v>
       </c>
@@ -5836,10 +5946,10 @@
       <c r="J201" s="15"/>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="42"/>
-      <c r="B202" s="46"/>
-      <c r="C202" s="39"/>
-      <c r="D202" s="39"/>
+      <c r="A202" s="54"/>
+      <c r="B202" s="56"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="51"/>
       <c r="E202" s="1" t="s">
         <v>102</v>
       </c>
@@ -5858,10 +5968,10 @@
       <c r="J202" s="15"/>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="42"/>
-      <c r="B203" s="46"/>
-      <c r="C203" s="39"/>
-      <c r="D203" s="39"/>
+      <c r="A203" s="54"/>
+      <c r="B203" s="56"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="51"/>
       <c r="E203" s="1" t="s">
         <v>102</v>
       </c>
@@ -5880,10 +5990,10 @@
       <c r="J203" s="15"/>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="42"/>
-      <c r="B204" s="46"/>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
+      <c r="A204" s="54"/>
+      <c r="B204" s="56"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="51"/>
       <c r="E204" s="1" t="s">
         <v>102</v>
       </c>
@@ -5902,10 +6012,10 @@
       <c r="J204" s="15"/>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="42"/>
-      <c r="B205" s="46"/>
-      <c r="C205" s="39"/>
-      <c r="D205" s="39"/>
+      <c r="A205" s="54"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="51"/>
+      <c r="D205" s="51"/>
       <c r="E205" s="1" t="s">
         <v>102</v>
       </c>
@@ -5924,10 +6034,10 @@
       <c r="J205" s="15"/>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="42"/>
-      <c r="B206" s="46"/>
-      <c r="C206" s="39"/>
-      <c r="D206" s="39"/>
+      <c r="A206" s="54"/>
+      <c r="B206" s="56"/>
+      <c r="C206" s="51"/>
+      <c r="D206" s="51"/>
       <c r="E206" s="1" t="s">
         <v>102</v>
       </c>
@@ -5946,12 +6056,12 @@
       <c r="J206" s="15"/>
     </row>
     <row r="207" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A207" s="42"/>
-      <c r="B207" s="46"/>
-      <c r="C207" s="40" t="s">
+      <c r="A207" s="54"/>
+      <c r="B207" s="56"/>
+      <c r="C207" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="D207" s="53" t="s">
         <v>131</v>
       </c>
       <c r="E207" s="29" t="s">
@@ -5972,10 +6082,10 @@
       <c r="J207" s="15"/>
     </row>
     <row r="208" spans="1:10">
-      <c r="A208" s="42"/>
-      <c r="B208" s="46"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="40"/>
+      <c r="A208" s="54"/>
+      <c r="B208" s="56"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="53"/>
       <c r="E208" s="29" t="s">
         <v>83</v>
       </c>
@@ -5994,10 +6104,10 @@
       <c r="J208" s="15"/>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="42"/>
-      <c r="B209" s="46"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="40"/>
+      <c r="A209" s="54"/>
+      <c r="B209" s="56"/>
+      <c r="C209" s="53"/>
+      <c r="D209" s="53"/>
       <c r="E209" s="29" t="s">
         <v>83</v>
       </c>
@@ -6016,10 +6126,10 @@
       <c r="J209" s="15"/>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="42"/>
-      <c r="B210" s="46"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="40"/>
+      <c r="A210" s="54"/>
+      <c r="B210" s="56"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="53"/>
       <c r="E210" s="29" t="s">
         <v>83</v>
       </c>
@@ -6038,10 +6148,10 @@
       <c r="J210" s="15"/>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" s="42"/>
-      <c r="B211" s="46"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="40"/>
+      <c r="A211" s="54"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="53"/>
       <c r="E211" s="29" t="s">
         <v>83</v>
       </c>
@@ -6060,10 +6170,10 @@
       <c r="J211" s="15"/>
     </row>
     <row r="212" spans="1:10">
-      <c r="A212" s="42"/>
-      <c r="B212" s="46"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="40"/>
+      <c r="A212" s="54"/>
+      <c r="B212" s="56"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
       <c r="E212" s="29" t="s">
         <v>83</v>
       </c>
@@ -6082,10 +6192,10 @@
       <c r="J212" s="15"/>
     </row>
     <row r="213" spans="1:10">
-      <c r="A213" s="42"/>
-      <c r="B213" s="46"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="40"/>
+      <c r="A213" s="54"/>
+      <c r="B213" s="56"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="53"/>
       <c r="E213" s="29" t="s">
         <v>83</v>
       </c>
@@ -6104,10 +6214,10 @@
       <c r="J213" s="15"/>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="42"/>
-      <c r="B214" s="46"/>
-      <c r="C214" s="40"/>
-      <c r="D214" s="40"/>
+      <c r="A214" s="54"/>
+      <c r="B214" s="56"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="53"/>
       <c r="E214" s="29" t="s">
         <v>83</v>
       </c>
@@ -6126,10 +6236,10 @@
       <c r="J214" s="15"/>
     </row>
     <row r="215" spans="1:10">
-      <c r="A215" s="42"/>
-      <c r="B215" s="46"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="40"/>
+      <c r="A215" s="54"/>
+      <c r="B215" s="56"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="53"/>
       <c r="E215" s="29" t="s">
         <v>83</v>
       </c>
@@ -6148,10 +6258,10 @@
       <c r="J215" s="15"/>
     </row>
     <row r="216" spans="1:10">
-      <c r="A216" s="42"/>
-      <c r="B216" s="46"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="40"/>
+      <c r="A216" s="54"/>
+      <c r="B216" s="56"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="53"/>
       <c r="E216" s="29" t="s">
         <v>83</v>
       </c>
@@ -6170,10 +6280,10 @@
       <c r="J216" s="15"/>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="42"/>
-      <c r="B217" s="46"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
+      <c r="A217" s="54"/>
+      <c r="B217" s="56"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="53"/>
       <c r="E217" s="29" t="s">
         <v>83</v>
       </c>
@@ -6192,10 +6302,10 @@
       <c r="J217" s="15"/>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="42"/>
-      <c r="B218" s="46"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="40"/>
+      <c r="A218" s="54"/>
+      <c r="B218" s="56"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="53"/>
       <c r="E218" s="29" t="s">
         <v>83</v>
       </c>
@@ -6214,10 +6324,10 @@
       <c r="J218" s="15"/>
     </row>
     <row r="219" spans="1:10">
-      <c r="A219" s="42"/>
-      <c r="B219" s="46"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="40"/>
+      <c r="A219" s="54"/>
+      <c r="B219" s="56"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="53"/>
       <c r="E219" s="29" t="s">
         <v>83</v>
       </c>
@@ -6236,10 +6346,10 @@
       <c r="J219" s="15"/>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="42"/>
-      <c r="B220" s="46"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="40"/>
+      <c r="A220" s="54"/>
+      <c r="B220" s="56"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="53"/>
       <c r="E220" s="29" t="s">
         <v>83</v>
       </c>
@@ -6258,10 +6368,10 @@
       <c r="J220" s="15"/>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="42"/>
-      <c r="B221" s="46"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="40"/>
+      <c r="A221" s="54"/>
+      <c r="B221" s="56"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="53"/>
       <c r="E221" s="29" t="s">
         <v>83</v>
       </c>
@@ -6280,10 +6390,10 @@
       <c r="J221" s="15"/>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="42"/>
-      <c r="B222" s="46"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="40"/>
+      <c r="A222" s="54"/>
+      <c r="B222" s="56"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="53"/>
       <c r="E222" s="29" t="s">
         <v>83</v>
       </c>
@@ -6302,10 +6412,10 @@
       <c r="J222" s="15"/>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="42"/>
-      <c r="B223" s="46"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="40"/>
+      <c r="A223" s="54"/>
+      <c r="B223" s="56"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="53"/>
       <c r="E223" s="29" t="s">
         <v>83</v>
       </c>
@@ -6324,10 +6434,10 @@
       <c r="J223" s="15"/>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="42"/>
-      <c r="B224" s="46"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="40"/>
+      <c r="A224" s="54"/>
+      <c r="B224" s="56"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="53"/>
       <c r="E224" s="29" t="s">
         <v>83</v>
       </c>
@@ -6346,10 +6456,10 @@
       <c r="J224" s="15"/>
     </row>
     <row r="225" spans="1:10">
-      <c r="A225" s="42"/>
-      <c r="B225" s="46"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
+      <c r="A225" s="54"/>
+      <c r="B225" s="56"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="53"/>
       <c r="E225" s="29" t="s">
         <v>83</v>
       </c>
@@ -6368,10 +6478,10 @@
       <c r="J225" s="15"/>
     </row>
     <row r="226" spans="1:10">
-      <c r="A226" s="42"/>
-      <c r="B226" s="46"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="56"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="53"/>
       <c r="E226" s="29" t="s">
         <v>83</v>
       </c>
@@ -6390,10 +6500,10 @@
       <c r="J226" s="15"/>
     </row>
     <row r="227" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A227" s="42"/>
-      <c r="B227" s="46"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="40"/>
+      <c r="A227" s="54"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
       <c r="E227" s="29" t="s">
         <v>83</v>
       </c>
@@ -6412,10 +6522,10 @@
       <c r="J227" s="15"/>
     </row>
     <row r="228" spans="1:10">
-      <c r="A228" s="42"/>
-      <c r="B228" s="46"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="40"/>
+      <c r="A228" s="54"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="53"/>
       <c r="E228" s="29" t="s">
         <v>83</v>
       </c>
@@ -6434,10 +6544,10 @@
       <c r="J228" s="15"/>
     </row>
     <row r="229" spans="1:10">
-      <c r="A229" s="42"/>
-      <c r="B229" s="46"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="40"/>
+      <c r="A229" s="54"/>
+      <c r="B229" s="56"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="53"/>
       <c r="E229" s="29" t="s">
         <v>83</v>
       </c>
@@ -6456,10 +6566,10 @@
       <c r="J229" s="15"/>
     </row>
     <row r="230" spans="1:10">
-      <c r="A230" s="42"/>
-      <c r="B230" s="46"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="40"/>
+      <c r="A230" s="54"/>
+      <c r="B230" s="56"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="53"/>
       <c r="E230" s="29" t="s">
         <v>83</v>
       </c>
@@ -6478,10 +6588,10 @@
       <c r="J230" s="15"/>
     </row>
     <row r="231" spans="1:10">
-      <c r="A231" s="42"/>
-      <c r="B231" s="46"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="40"/>
+      <c r="A231" s="54"/>
+      <c r="B231" s="56"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="53"/>
       <c r="E231" s="29" t="s">
         <v>83</v>
       </c>
@@ -6500,10 +6610,10 @@
       <c r="J231" s="15"/>
     </row>
     <row r="232" spans="1:10">
-      <c r="A232" s="42"/>
-      <c r="B232" s="46"/>
-      <c r="C232" s="40"/>
-      <c r="D232" s="40"/>
+      <c r="A232" s="54"/>
+      <c r="B232" s="56"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="53"/>
       <c r="E232" s="29" t="s">
         <v>83</v>
       </c>
@@ -6522,10 +6632,10 @@
       <c r="J232" s="15"/>
     </row>
     <row r="233" spans="1:10">
-      <c r="A233" s="42"/>
-      <c r="B233" s="46"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="40"/>
+      <c r="A233" s="54"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="53"/>
       <c r="E233" s="29" t="s">
         <v>83</v>
       </c>
@@ -6544,10 +6654,10 @@
       <c r="J233" s="15"/>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="42"/>
-      <c r="B234" s="46"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="40"/>
+      <c r="A234" s="54"/>
+      <c r="B234" s="56"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="53"/>
       <c r="E234" s="29" t="s">
         <v>83</v>
       </c>
@@ -6566,10 +6676,10 @@
       <c r="J234" s="15"/>
     </row>
     <row r="235" spans="1:10">
-      <c r="A235" s="42"/>
-      <c r="B235" s="46"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
+      <c r="A235" s="54"/>
+      <c r="B235" s="56"/>
+      <c r="C235" s="53"/>
+      <c r="D235" s="53"/>
       <c r="E235" s="29" t="s">
         <v>83</v>
       </c>
@@ -6588,12 +6698,12 @@
       <c r="J235" s="15"/>
     </row>
     <row r="236" spans="1:10">
-      <c r="A236" s="42"/>
-      <c r="B236" s="46"/>
-      <c r="C236" s="39" t="s">
+      <c r="A236" s="54"/>
+      <c r="B236" s="56"/>
+      <c r="C236" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D236" s="39" t="s">
+      <c r="D236" s="51" t="s">
         <v>142</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -6612,10 +6722,10 @@
       <c r="J236" s="15"/>
     </row>
     <row r="237" spans="1:10">
-      <c r="A237" s="42"/>
-      <c r="B237" s="46"/>
-      <c r="C237" s="39"/>
-      <c r="D237" s="39"/>
+      <c r="A237" s="54"/>
+      <c r="B237" s="56"/>
+      <c r="C237" s="51"/>
+      <c r="D237" s="51"/>
       <c r="E237" s="1" t="s">
         <v>74</v>
       </c>
@@ -6632,10 +6742,10 @@
       <c r="J237" s="15"/>
     </row>
     <row r="238" spans="1:10">
-      <c r="A238" s="42"/>
-      <c r="B238" s="46"/>
-      <c r="C238" s="39"/>
-      <c r="D238" s="39"/>
+      <c r="A238" s="54"/>
+      <c r="B238" s="56"/>
+      <c r="C238" s="51"/>
+      <c r="D238" s="51"/>
       <c r="E238" s="1" t="s">
         <v>74</v>
       </c>
@@ -6652,10 +6762,10 @@
       <c r="J238" s="15"/>
     </row>
     <row r="239" spans="1:10">
-      <c r="A239" s="42"/>
-      <c r="B239" s="46"/>
-      <c r="C239" s="39"/>
-      <c r="D239" s="39"/>
+      <c r="A239" s="54"/>
+      <c r="B239" s="56"/>
+      <c r="C239" s="51"/>
+      <c r="D239" s="51"/>
       <c r="E239" s="1" t="s">
         <v>74</v>
       </c>
@@ -6672,10 +6782,10 @@
       <c r="J239" s="15"/>
     </row>
     <row r="240" spans="1:10">
-      <c r="A240" s="42"/>
-      <c r="B240" s="46"/>
-      <c r="C240" s="39"/>
-      <c r="D240" s="39"/>
+      <c r="A240" s="54"/>
+      <c r="B240" s="56"/>
+      <c r="C240" s="51"/>
+      <c r="D240" s="51"/>
       <c r="E240" s="1" t="s">
         <v>74</v>
       </c>
@@ -6692,10 +6802,10 @@
       <c r="J240" s="15"/>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="42"/>
-      <c r="B241" s="46"/>
-      <c r="C241" s="39"/>
-      <c r="D241" s="39"/>
+      <c r="A241" s="54"/>
+      <c r="B241" s="56"/>
+      <c r="C241" s="51"/>
+      <c r="D241" s="51"/>
       <c r="E241" s="1" t="s">
         <v>74</v>
       </c>
@@ -6712,10 +6822,10 @@
       <c r="J241" s="15"/>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="42"/>
-      <c r="B242" s="46"/>
-      <c r="C242" s="39"/>
-      <c r="D242" s="39"/>
+      <c r="A242" s="54"/>
+      <c r="B242" s="56"/>
+      <c r="C242" s="51"/>
+      <c r="D242" s="51"/>
       <c r="E242" s="1" t="s">
         <v>74</v>
       </c>
@@ -6732,12 +6842,12 @@
       <c r="J242" s="15"/>
     </row>
     <row r="243" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A243" s="42"/>
-      <c r="B243" s="46"/>
-      <c r="C243" s="40" t="s">
+      <c r="A243" s="54"/>
+      <c r="B243" s="56"/>
+      <c r="C243" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D243" s="40" t="s">
+      <c r="D243" s="53" t="s">
         <v>145</v>
       </c>
       <c r="E243" s="29" t="s">
@@ -6756,10 +6866,10 @@
       <c r="J243" s="15"/>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="42"/>
-      <c r="B244" s="46"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="40"/>
+      <c r="A244" s="54"/>
+      <c r="B244" s="56"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="53"/>
       <c r="E244" s="29" t="s">
         <v>83</v>
       </c>
@@ -6776,10 +6886,10 @@
       <c r="J244" s="15"/>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="42"/>
-      <c r="B245" s="46"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="40"/>
+      <c r="A245" s="54"/>
+      <c r="B245" s="56"/>
+      <c r="C245" s="53"/>
+      <c r="D245" s="53"/>
       <c r="E245" s="29" t="s">
         <v>83</v>
       </c>
@@ -6796,10 +6906,10 @@
       <c r="J245" s="15"/>
     </row>
     <row r="246" spans="1:10">
-      <c r="A246" s="42"/>
-      <c r="B246" s="46"/>
-      <c r="C246" s="40"/>
-      <c r="D246" s="40"/>
+      <c r="A246" s="54"/>
+      <c r="B246" s="56"/>
+      <c r="C246" s="53"/>
+      <c r="D246" s="53"/>
       <c r="E246" s="29" t="s">
         <v>83</v>
       </c>
@@ -6816,10 +6926,10 @@
       <c r="J246" s="15"/>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="42"/>
-      <c r="B247" s="46"/>
-      <c r="C247" s="40"/>
-      <c r="D247" s="40"/>
+      <c r="A247" s="54"/>
+      <c r="B247" s="56"/>
+      <c r="C247" s="53"/>
+      <c r="D247" s="53"/>
       <c r="E247" s="29" t="s">
         <v>83</v>
       </c>
@@ -6836,10 +6946,10 @@
       <c r="J247" s="15"/>
     </row>
     <row r="248" spans="1:10">
-      <c r="A248" s="42"/>
-      <c r="B248" s="46"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="40"/>
+      <c r="A248" s="54"/>
+      <c r="B248" s="56"/>
+      <c r="C248" s="53"/>
+      <c r="D248" s="53"/>
       <c r="E248" s="29" t="s">
         <v>83</v>
       </c>
@@ -6856,10 +6966,10 @@
       <c r="J248" s="15"/>
     </row>
     <row r="249" spans="1:10">
-      <c r="A249" s="42"/>
-      <c r="B249" s="47"/>
-      <c r="C249" s="40"/>
-      <c r="D249" s="40"/>
+      <c r="A249" s="54"/>
+      <c r="B249" s="57"/>
+      <c r="C249" s="53"/>
+      <c r="D249" s="53"/>
       <c r="E249" s="29" t="s">
         <v>83</v>
       </c>
@@ -6876,16 +6986,16 @@
       <c r="J249" s="15"/>
     </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="57">
+      <c r="A250" s="45">
         <v>3</v>
       </c>
-      <c r="B250" s="58" t="s">
+      <c r="B250" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C250" s="39" t="s">
+      <c r="C250" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D250" s="39" t="s">
+      <c r="D250" s="51" t="s">
         <v>155</v>
       </c>
       <c r="E250" s="2" t="s">
@@ -6902,10 +7012,10 @@
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="57"/>
-      <c r="B251" s="59"/>
-      <c r="C251" s="39"/>
-      <c r="D251" s="39"/>
+      <c r="A251" s="45"/>
+      <c r="B251" s="47"/>
+      <c r="C251" s="51"/>
+      <c r="D251" s="51"/>
       <c r="E251" s="2" t="s">
         <v>102</v>
       </c>
@@ -6920,10 +7030,10 @@
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="57"/>
-      <c r="B252" s="59"/>
-      <c r="C252" s="39"/>
-      <c r="D252" s="39"/>
+      <c r="A252" s="45"/>
+      <c r="B252" s="47"/>
+      <c r="C252" s="51"/>
+      <c r="D252" s="51"/>
       <c r="E252" s="2" t="s">
         <v>102</v>
       </c>
@@ -6938,10 +7048,10 @@
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="57"/>
-      <c r="B253" s="59"/>
-      <c r="C253" s="39"/>
-      <c r="D253" s="39"/>
+      <c r="A253" s="45"/>
+      <c r="B253" s="47"/>
+      <c r="C253" s="51"/>
+      <c r="D253" s="51"/>
       <c r="E253" s="2" t="s">
         <v>102</v>
       </c>
@@ -6956,10 +7066,10 @@
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="57"/>
-      <c r="B254" s="59"/>
-      <c r="C254" s="39"/>
-      <c r="D254" s="39"/>
+      <c r="A254" s="45"/>
+      <c r="B254" s="47"/>
+      <c r="C254" s="51"/>
+      <c r="D254" s="51"/>
       <c r="E254" s="2" t="s">
         <v>102</v>
       </c>
@@ -6974,10 +7084,10 @@
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="57"/>
-      <c r="B255" s="59"/>
-      <c r="C255" s="39"/>
-      <c r="D255" s="39"/>
+      <c r="A255" s="45"/>
+      <c r="B255" s="47"/>
+      <c r="C255" s="51"/>
+      <c r="D255" s="51"/>
       <c r="E255" s="2" t="s">
         <v>102</v>
       </c>
@@ -6992,12 +7102,12 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A256" s="57"/>
-      <c r="B256" s="59"/>
-      <c r="C256" s="54" t="s">
+      <c r="A256" s="45"/>
+      <c r="B256" s="47"/>
+      <c r="C256" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D256" s="54" t="s">
+      <c r="D256" s="52" t="s">
         <v>155</v>
       </c>
       <c r="E256" s="32" t="s">
@@ -7014,10 +7124,10 @@
       </c>
     </row>
     <row r="257" spans="1:10">
-      <c r="A257" s="57"/>
-      <c r="B257" s="59"/>
-      <c r="C257" s="54"/>
-      <c r="D257" s="54"/>
+      <c r="A257" s="45"/>
+      <c r="B257" s="47"/>
+      <c r="C257" s="52"/>
+      <c r="D257" s="52"/>
       <c r="E257" s="32" t="s">
         <v>83</v>
       </c>
@@ -7032,10 +7142,10 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="57"/>
-      <c r="B258" s="59"/>
-      <c r="C258" s="54"/>
-      <c r="D258" s="54"/>
+      <c r="A258" s="45"/>
+      <c r="B258" s="47"/>
+      <c r="C258" s="52"/>
+      <c r="D258" s="52"/>
       <c r="E258" s="32" t="s">
         <v>83</v>
       </c>
@@ -7050,10 +7160,10 @@
       </c>
     </row>
     <row r="259" spans="1:10">
-      <c r="A259" s="57"/>
-      <c r="B259" s="59"/>
-      <c r="C259" s="54"/>
-      <c r="D259" s="54"/>
+      <c r="A259" s="45"/>
+      <c r="B259" s="47"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="52"/>
       <c r="E259" s="32" t="s">
         <v>83</v>
       </c>
@@ -7068,10 +7178,10 @@
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="A260" s="57"/>
-      <c r="B260" s="59"/>
-      <c r="C260" s="54"/>
-      <c r="D260" s="54"/>
+      <c r="A260" s="45"/>
+      <c r="B260" s="47"/>
+      <c r="C260" s="52"/>
+      <c r="D260" s="52"/>
       <c r="E260" s="32" t="s">
         <v>83</v>
       </c>
@@ -7086,12 +7196,12 @@
       </c>
     </row>
     <row r="261" spans="1:10">
-      <c r="A261" s="57"/>
-      <c r="B261" s="59"/>
-      <c r="C261" s="39" t="s">
+      <c r="A261" s="45"/>
+      <c r="B261" s="47"/>
+      <c r="C261" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D261" s="39" t="s">
+      <c r="D261" s="51" t="s">
         <v>167</v>
       </c>
       <c r="E261" s="2" t="s">
@@ -7111,10 +7221,10 @@
       </c>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="57"/>
-      <c r="B262" s="59"/>
-      <c r="C262" s="39"/>
-      <c r="D262" s="39"/>
+      <c r="A262" s="45"/>
+      <c r="B262" s="47"/>
+      <c r="C262" s="51"/>
+      <c r="D262" s="51"/>
       <c r="E262" s="2" t="s">
         <v>102</v>
       </c>
@@ -7133,10 +7243,10 @@
       <c r="J262" s="17"/>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="57"/>
-      <c r="B263" s="59"/>
-      <c r="C263" s="39"/>
-      <c r="D263" s="39"/>
+      <c r="A263" s="45"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="51"/>
+      <c r="D263" s="51"/>
       <c r="E263" s="2" t="s">
         <v>102</v>
       </c>
@@ -7155,10 +7265,10 @@
       <c r="J263" s="17"/>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="57"/>
-      <c r="B264" s="59"/>
-      <c r="C264" s="39"/>
-      <c r="D264" s="39"/>
+      <c r="A264" s="45"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="51"/>
+      <c r="D264" s="51"/>
       <c r="E264" s="2" t="s">
         <v>102</v>
       </c>
@@ -7177,10 +7287,10 @@
       <c r="J264" s="17"/>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="57"/>
-      <c r="B265" s="59"/>
-      <c r="C265" s="39"/>
-      <c r="D265" s="39"/>
+      <c r="A265" s="45"/>
+      <c r="B265" s="47"/>
+      <c r="C265" s="51"/>
+      <c r="D265" s="51"/>
       <c r="E265" s="2" t="s">
         <v>102</v>
       </c>
@@ -7199,10 +7309,10 @@
       <c r="J265" s="17"/>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="57"/>
-      <c r="B266" s="59"/>
-      <c r="C266" s="39"/>
-      <c r="D266" s="39"/>
+      <c r="A266" s="45"/>
+      <c r="B266" s="47"/>
+      <c r="C266" s="51"/>
+      <c r="D266" s="51"/>
       <c r="E266" s="2" t="s">
         <v>102</v>
       </c>
@@ -7221,10 +7331,10 @@
       <c r="J266" s="17"/>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="57"/>
-      <c r="B267" s="59"/>
-      <c r="C267" s="39"/>
-      <c r="D267" s="39"/>
+      <c r="A267" s="45"/>
+      <c r="B267" s="47"/>
+      <c r="C267" s="51"/>
+      <c r="D267" s="51"/>
       <c r="E267" s="2" t="s">
         <v>102</v>
       </c>
@@ -7243,10 +7353,10 @@
       <c r="J267" s="17"/>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="57"/>
-      <c r="B268" s="59"/>
-      <c r="C268" s="39"/>
-      <c r="D268" s="39"/>
+      <c r="A268" s="45"/>
+      <c r="B268" s="47"/>
+      <c r="C268" s="51"/>
+      <c r="D268" s="51"/>
       <c r="E268" s="2" t="s">
         <v>102</v>
       </c>
@@ -7265,10 +7375,10 @@
       <c r="J268" s="17"/>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="57"/>
-      <c r="B269" s="59"/>
-      <c r="C269" s="39"/>
-      <c r="D269" s="39"/>
+      <c r="A269" s="45"/>
+      <c r="B269" s="47"/>
+      <c r="C269" s="51"/>
+      <c r="D269" s="51"/>
       <c r="E269" s="2" t="s">
         <v>102</v>
       </c>
@@ -7287,10 +7397,10 @@
       <c r="J269" s="17"/>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="57"/>
-      <c r="B270" s="59"/>
-      <c r="C270" s="39"/>
-      <c r="D270" s="39"/>
+      <c r="A270" s="45"/>
+      <c r="B270" s="47"/>
+      <c r="C270" s="51"/>
+      <c r="D270" s="51"/>
       <c r="E270" s="2" t="s">
         <v>102</v>
       </c>
@@ -7309,10 +7419,10 @@
       <c r="J270" s="17"/>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="57"/>
-      <c r="B271" s="59"/>
-      <c r="C271" s="39"/>
-      <c r="D271" s="39"/>
+      <c r="A271" s="45"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="51"/>
+      <c r="D271" s="51"/>
       <c r="E271" s="2" t="s">
         <v>102</v>
       </c>
@@ -7331,10 +7441,10 @@
       <c r="J271" s="17"/>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="57"/>
-      <c r="B272" s="59"/>
-      <c r="C272" s="39"/>
-      <c r="D272" s="39"/>
+      <c r="A272" s="45"/>
+      <c r="B272" s="47"/>
+      <c r="C272" s="51"/>
+      <c r="D272" s="51"/>
       <c r="E272" s="2" t="s">
         <v>102</v>
       </c>
@@ -7353,10 +7463,10 @@
       <c r="J272" s="17"/>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="57"/>
-      <c r="B273" s="59"/>
-      <c r="C273" s="39"/>
-      <c r="D273" s="39"/>
+      <c r="A273" s="45"/>
+      <c r="B273" s="47"/>
+      <c r="C273" s="51"/>
+      <c r="D273" s="51"/>
       <c r="E273" s="2" t="s">
         <v>102</v>
       </c>
@@ -7375,10 +7485,10 @@
       <c r="J273" s="17"/>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="57"/>
-      <c r="B274" s="59"/>
-      <c r="C274" s="39"/>
-      <c r="D274" s="39"/>
+      <c r="A274" s="45"/>
+      <c r="B274" s="47"/>
+      <c r="C274" s="51"/>
+      <c r="D274" s="51"/>
       <c r="E274" s="2" t="s">
         <v>102</v>
       </c>
@@ -7397,10 +7507,10 @@
       <c r="J274" s="17"/>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="57"/>
-      <c r="B275" s="59"/>
-      <c r="C275" s="39"/>
-      <c r="D275" s="39"/>
+      <c r="A275" s="45"/>
+      <c r="B275" s="47"/>
+      <c r="C275" s="51"/>
+      <c r="D275" s="51"/>
       <c r="E275" s="2" t="s">
         <v>102</v>
       </c>
@@ -7419,10 +7529,10 @@
       <c r="J275" s="17"/>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="57"/>
-      <c r="B276" s="59"/>
-      <c r="C276" s="39"/>
-      <c r="D276" s="39"/>
+      <c r="A276" s="45"/>
+      <c r="B276" s="47"/>
+      <c r="C276" s="51"/>
+      <c r="D276" s="51"/>
       <c r="E276" s="2" t="s">
         <v>102</v>
       </c>
@@ -7441,10 +7551,10 @@
       <c r="J276" s="17"/>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="57"/>
-      <c r="B277" s="59"/>
-      <c r="C277" s="39"/>
-      <c r="D277" s="39"/>
+      <c r="A277" s="45"/>
+      <c r="B277" s="47"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="51"/>
       <c r="E277" s="2" t="s">
         <v>102</v>
       </c>
@@ -7463,10 +7573,10 @@
       <c r="J277" s="17"/>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="57"/>
-      <c r="B278" s="59"/>
-      <c r="C278" s="39"/>
-      <c r="D278" s="39"/>
+      <c r="A278" s="45"/>
+      <c r="B278" s="47"/>
+      <c r="C278" s="51"/>
+      <c r="D278" s="51"/>
       <c r="E278" s="2" t="s">
         <v>102</v>
       </c>
@@ -7485,10 +7595,10 @@
       <c r="J278" s="17"/>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="57"/>
-      <c r="B279" s="59"/>
-      <c r="C279" s="39"/>
-      <c r="D279" s="39"/>
+      <c r="A279" s="45"/>
+      <c r="B279" s="47"/>
+      <c r="C279" s="51"/>
+      <c r="D279" s="51"/>
       <c r="E279" s="2" t="s">
         <v>102</v>
       </c>
@@ -7507,10 +7617,10 @@
       <c r="J279" s="17"/>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="57"/>
-      <c r="B280" s="59"/>
-      <c r="C280" s="39"/>
-      <c r="D280" s="39"/>
+      <c r="A280" s="45"/>
+      <c r="B280" s="47"/>
+      <c r="C280" s="51"/>
+      <c r="D280" s="51"/>
       <c r="E280" s="2" t="s">
         <v>102</v>
       </c>
@@ -7529,10 +7639,10 @@
       <c r="J280" s="17"/>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="57"/>
-      <c r="B281" s="59"/>
-      <c r="C281" s="39"/>
-      <c r="D281" s="39"/>
+      <c r="A281" s="45"/>
+      <c r="B281" s="47"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
       <c r="E281" s="2" t="s">
         <v>102</v>
       </c>
@@ -7551,10 +7661,10 @@
       <c r="J281" s="17"/>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="57"/>
-      <c r="B282" s="59"/>
-      <c r="C282" s="39"/>
-      <c r="D282" s="39"/>
+      <c r="A282" s="45"/>
+      <c r="B282" s="47"/>
+      <c r="C282" s="51"/>
+      <c r="D282" s="51"/>
       <c r="E282" s="2" t="s">
         <v>102</v>
       </c>
@@ -7573,10 +7683,10 @@
       <c r="J282" s="17"/>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="57"/>
-      <c r="B283" s="59"/>
-      <c r="C283" s="39"/>
-      <c r="D283" s="39"/>
+      <c r="A283" s="45"/>
+      <c r="B283" s="47"/>
+      <c r="C283" s="51"/>
+      <c r="D283" s="51"/>
       <c r="E283" s="2" t="s">
         <v>102</v>
       </c>
@@ -7595,10 +7705,10 @@
       <c r="J283" s="17"/>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="57"/>
-      <c r="B284" s="59"/>
-      <c r="C284" s="39"/>
-      <c r="D284" s="39"/>
+      <c r="A284" s="45"/>
+      <c r="B284" s="47"/>
+      <c r="C284" s="51"/>
+      <c r="D284" s="51"/>
       <c r="E284" s="2" t="s">
         <v>102</v>
       </c>
@@ -7617,10 +7727,10 @@
       <c r="J284" s="17"/>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="57"/>
-      <c r="B285" s="59"/>
-      <c r="C285" s="39"/>
-      <c r="D285" s="39"/>
+      <c r="A285" s="45"/>
+      <c r="B285" s="47"/>
+      <c r="C285" s="51"/>
+      <c r="D285" s="51"/>
       <c r="E285" s="2" t="s">
         <v>102</v>
       </c>
@@ -7639,12 +7749,12 @@
       <c r="J285" s="17"/>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="57"/>
-      <c r="B286" s="59"/>
-      <c r="C286" s="54" t="s">
+      <c r="A286" s="45"/>
+      <c r="B286" s="47"/>
+      <c r="C286" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="D286" s="55" t="s">
+      <c r="D286" s="50" t="s">
         <v>167</v>
       </c>
       <c r="E286" s="32" t="s">
@@ -7665,10 +7775,10 @@
       <c r="J286" s="17"/>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="57"/>
-      <c r="B287" s="59"/>
-      <c r="C287" s="54"/>
-      <c r="D287" s="55"/>
+      <c r="A287" s="45"/>
+      <c r="B287" s="47"/>
+      <c r="C287" s="52"/>
+      <c r="D287" s="50"/>
       <c r="E287" s="32" t="s">
         <v>83</v>
       </c>
@@ -7687,10 +7797,10 @@
       <c r="J287" s="17"/>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="57"/>
-      <c r="B288" s="59"/>
-      <c r="C288" s="54"/>
-      <c r="D288" s="55"/>
+      <c r="A288" s="45"/>
+      <c r="B288" s="47"/>
+      <c r="C288" s="52"/>
+      <c r="D288" s="50"/>
       <c r="E288" s="32" t="s">
         <v>83</v>
       </c>
@@ -7709,10 +7819,10 @@
       <c r="J288" s="17"/>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="57"/>
-      <c r="B289" s="59"/>
-      <c r="C289" s="54"/>
-      <c r="D289" s="55"/>
+      <c r="A289" s="45"/>
+      <c r="B289" s="47"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="50"/>
       <c r="E289" s="32" t="s">
         <v>83</v>
       </c>
@@ -7731,10 +7841,10 @@
       <c r="J289" s="17"/>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="57"/>
-      <c r="B290" s="59"/>
-      <c r="C290" s="54"/>
-      <c r="D290" s="55"/>
+      <c r="A290" s="45"/>
+      <c r="B290" s="47"/>
+      <c r="C290" s="52"/>
+      <c r="D290" s="50"/>
       <c r="E290" s="32" t="s">
         <v>83</v>
       </c>
@@ -7753,10 +7863,10 @@
       <c r="J290" s="17"/>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="57"/>
-      <c r="B291" s="59"/>
-      <c r="C291" s="54"/>
-      <c r="D291" s="55"/>
+      <c r="A291" s="45"/>
+      <c r="B291" s="47"/>
+      <c r="C291" s="52"/>
+      <c r="D291" s="50"/>
       <c r="E291" s="32" t="s">
         <v>83</v>
       </c>
@@ -7775,10 +7885,10 @@
       <c r="J291" s="17"/>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="57"/>
-      <c r="B292" s="59"/>
-      <c r="C292" s="54"/>
-      <c r="D292" s="55"/>
+      <c r="A292" s="45"/>
+      <c r="B292" s="47"/>
+      <c r="C292" s="52"/>
+      <c r="D292" s="50"/>
       <c r="E292" s="32" t="s">
         <v>83</v>
       </c>
@@ -7797,10 +7907,10 @@
       <c r="J292" s="17"/>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="57"/>
-      <c r="B293" s="59"/>
-      <c r="C293" s="54"/>
-      <c r="D293" s="55"/>
+      <c r="A293" s="45"/>
+      <c r="B293" s="47"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="50"/>
       <c r="E293" s="32" t="s">
         <v>83</v>
       </c>
@@ -7819,10 +7929,10 @@
       <c r="J293" s="17"/>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="57"/>
-      <c r="B294" s="59"/>
-      <c r="C294" s="54"/>
-      <c r="D294" s="55"/>
+      <c r="A294" s="45"/>
+      <c r="B294" s="47"/>
+      <c r="C294" s="52"/>
+      <c r="D294" s="50"/>
       <c r="E294" s="32" t="s">
         <v>83</v>
       </c>
@@ -7841,10 +7951,10 @@
       <c r="J294" s="17"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="57"/>
-      <c r="B295" s="59"/>
-      <c r="C295" s="54"/>
-      <c r="D295" s="55"/>
+      <c r="A295" s="45"/>
+      <c r="B295" s="47"/>
+      <c r="C295" s="52"/>
+      <c r="D295" s="50"/>
       <c r="E295" s="32" t="s">
         <v>83</v>
       </c>
@@ -7863,10 +7973,10 @@
       <c r="J295" s="17"/>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="57"/>
-      <c r="B296" s="59"/>
-      <c r="C296" s="54"/>
-      <c r="D296" s="55"/>
+      <c r="A296" s="45"/>
+      <c r="B296" s="47"/>
+      <c r="C296" s="52"/>
+      <c r="D296" s="50"/>
       <c r="E296" s="32" t="s">
         <v>83</v>
       </c>
@@ -7885,10 +7995,10 @@
       <c r="J296" s="17"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="57"/>
-      <c r="B297" s="59"/>
-      <c r="C297" s="54"/>
-      <c r="D297" s="55"/>
+      <c r="A297" s="45"/>
+      <c r="B297" s="47"/>
+      <c r="C297" s="52"/>
+      <c r="D297" s="50"/>
       <c r="E297" s="32" t="s">
         <v>83</v>
       </c>
@@ -7907,10 +8017,10 @@
       <c r="J297" s="17"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="57"/>
-      <c r="B298" s="59"/>
-      <c r="C298" s="54"/>
-      <c r="D298" s="55"/>
+      <c r="A298" s="45"/>
+      <c r="B298" s="47"/>
+      <c r="C298" s="52"/>
+      <c r="D298" s="50"/>
       <c r="E298" s="32" t="s">
         <v>83</v>
       </c>
@@ -7929,10 +8039,10 @@
       <c r="J298" s="17"/>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="57"/>
-      <c r="B299" s="59"/>
-      <c r="C299" s="54"/>
-      <c r="D299" s="55"/>
+      <c r="A299" s="45"/>
+      <c r="B299" s="47"/>
+      <c r="C299" s="52"/>
+      <c r="D299" s="50"/>
       <c r="E299" s="32" t="s">
         <v>83</v>
       </c>
@@ -7951,10 +8061,10 @@
       <c r="J299" s="17"/>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="57"/>
-      <c r="B300" s="59"/>
-      <c r="C300" s="54"/>
-      <c r="D300" s="55"/>
+      <c r="A300" s="45"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="52"/>
+      <c r="D300" s="50"/>
       <c r="E300" s="32" t="s">
         <v>83</v>
       </c>
@@ -7973,10 +8083,10 @@
       <c r="J300" s="17"/>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="57"/>
-      <c r="B301" s="59"/>
-      <c r="C301" s="54"/>
-      <c r="D301" s="55"/>
+      <c r="A301" s="45"/>
+      <c r="B301" s="47"/>
+      <c r="C301" s="52"/>
+      <c r="D301" s="50"/>
       <c r="E301" s="32" t="s">
         <v>83</v>
       </c>
@@ -7995,10 +8105,10 @@
       <c r="J301" s="17"/>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="57"/>
-      <c r="B302" s="59"/>
-      <c r="C302" s="54"/>
-      <c r="D302" s="55"/>
+      <c r="A302" s="45"/>
+      <c r="B302" s="47"/>
+      <c r="C302" s="52"/>
+      <c r="D302" s="50"/>
       <c r="E302" s="32" t="s">
         <v>83</v>
       </c>
@@ -8017,10 +8127,10 @@
       <c r="J302" s="17"/>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="57"/>
-      <c r="B303" s="59"/>
-      <c r="C303" s="54"/>
-      <c r="D303" s="55"/>
+      <c r="A303" s="45"/>
+      <c r="B303" s="47"/>
+      <c r="C303" s="52"/>
+      <c r="D303" s="50"/>
       <c r="E303" s="32" t="s">
         <v>83</v>
       </c>
@@ -8039,10 +8149,10 @@
       <c r="J303" s="17"/>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="57"/>
-      <c r="B304" s="59"/>
-      <c r="C304" s="54"/>
-      <c r="D304" s="55"/>
+      <c r="A304" s="45"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="52"/>
+      <c r="D304" s="50"/>
       <c r="E304" s="32" t="s">
         <v>83</v>
       </c>
@@ -8061,10 +8171,10 @@
       <c r="J304" s="17"/>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="57"/>
-      <c r="B305" s="59"/>
-      <c r="C305" s="54"/>
-      <c r="D305" s="55"/>
+      <c r="A305" s="45"/>
+      <c r="B305" s="47"/>
+      <c r="C305" s="52"/>
+      <c r="D305" s="50"/>
       <c r="E305" s="32" t="s">
         <v>83</v>
       </c>
@@ -8083,10 +8193,10 @@
       <c r="J305" s="17"/>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="57"/>
-      <c r="B306" s="59"/>
-      <c r="C306" s="54"/>
-      <c r="D306" s="55"/>
+      <c r="A306" s="45"/>
+      <c r="B306" s="47"/>
+      <c r="C306" s="52"/>
+      <c r="D306" s="50"/>
       <c r="E306" s="32" t="s">
         <v>83</v>
       </c>
@@ -8105,10 +8215,10 @@
       <c r="J306" s="17"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="57"/>
-      <c r="B307" s="59"/>
-      <c r="C307" s="54"/>
-      <c r="D307" s="55"/>
+      <c r="A307" s="45"/>
+      <c r="B307" s="47"/>
+      <c r="C307" s="52"/>
+      <c r="D307" s="50"/>
       <c r="E307" s="32" t="s">
         <v>83</v>
       </c>
@@ -8127,10 +8237,10 @@
       <c r="J307" s="17"/>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="57"/>
-      <c r="B308" s="59"/>
-      <c r="C308" s="54"/>
-      <c r="D308" s="55"/>
+      <c r="A308" s="45"/>
+      <c r="B308" s="47"/>
+      <c r="C308" s="52"/>
+      <c r="D308" s="50"/>
       <c r="E308" s="32" t="s">
         <v>83</v>
       </c>
@@ -8149,10 +8259,10 @@
       <c r="J308" s="17"/>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="57"/>
-      <c r="B309" s="59"/>
-      <c r="C309" s="54"/>
-      <c r="D309" s="55"/>
+      <c r="A309" s="45"/>
+      <c r="B309" s="47"/>
+      <c r="C309" s="52"/>
+      <c r="D309" s="50"/>
       <c r="E309" s="32" t="s">
         <v>83</v>
       </c>
@@ -8171,10 +8281,10 @@
       <c r="J309" s="17"/>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="57"/>
-      <c r="B310" s="59"/>
-      <c r="C310" s="54"/>
-      <c r="D310" s="55"/>
+      <c r="A310" s="45"/>
+      <c r="B310" s="47"/>
+      <c r="C310" s="52"/>
+      <c r="D310" s="50"/>
       <c r="E310" s="32" t="s">
         <v>83</v>
       </c>
@@ -8193,10 +8303,10 @@
       <c r="J310" s="17"/>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="57"/>
-      <c r="B311" s="59"/>
-      <c r="C311" s="54"/>
-      <c r="D311" s="55"/>
+      <c r="A311" s="45"/>
+      <c r="B311" s="47"/>
+      <c r="C311" s="52"/>
+      <c r="D311" s="50"/>
       <c r="E311" s="32" t="s">
         <v>83</v>
       </c>
@@ -8215,10 +8325,10 @@
       <c r="J311" s="17"/>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="57"/>
-      <c r="B312" s="59"/>
-      <c r="C312" s="54"/>
-      <c r="D312" s="55"/>
+      <c r="A312" s="45"/>
+      <c r="B312" s="47"/>
+      <c r="C312" s="52"/>
+      <c r="D312" s="50"/>
       <c r="E312" s="32" t="s">
         <v>83</v>
       </c>
@@ -8237,10 +8347,10 @@
       <c r="J312" s="17"/>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="57"/>
-      <c r="B313" s="59"/>
-      <c r="C313" s="54"/>
-      <c r="D313" s="55"/>
+      <c r="A313" s="45"/>
+      <c r="B313" s="47"/>
+      <c r="C313" s="52"/>
+      <c r="D313" s="50"/>
       <c r="E313" s="32" t="s">
         <v>83</v>
       </c>
@@ -8259,12 +8369,12 @@
       <c r="J313" s="17"/>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="57"/>
-      <c r="B314" s="59"/>
-      <c r="C314" s="56" t="s">
+      <c r="A314" s="45"/>
+      <c r="B314" s="47"/>
+      <c r="C314" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D314" s="56" t="s">
+      <c r="D314" s="49" t="s">
         <v>168</v>
       </c>
       <c r="E314" s="2" t="s">
@@ -8281,10 +8391,10 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="57"/>
-      <c r="B315" s="59"/>
-      <c r="C315" s="56"/>
-      <c r="D315" s="56"/>
+      <c r="A315" s="45"/>
+      <c r="B315" s="47"/>
+      <c r="C315" s="49"/>
+      <c r="D315" s="49"/>
       <c r="E315" s="2" t="s">
         <v>102</v>
       </c>
@@ -8299,10 +8409,10 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="57"/>
-      <c r="B316" s="59"/>
-      <c r="C316" s="56"/>
-      <c r="D316" s="56"/>
+      <c r="A316" s="45"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="49"/>
+      <c r="D316" s="49"/>
       <c r="E316" s="2" t="s">
         <v>102</v>
       </c>
@@ -8317,10 +8427,10 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="57"/>
-      <c r="B317" s="59"/>
-      <c r="C317" s="56"/>
-      <c r="D317" s="56"/>
+      <c r="A317" s="45"/>
+      <c r="B317" s="47"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="49"/>
       <c r="E317" s="2" t="s">
         <v>102</v>
       </c>
@@ -8335,10 +8445,10 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="57"/>
-      <c r="B318" s="59"/>
-      <c r="C318" s="56"/>
-      <c r="D318" s="56"/>
+      <c r="A318" s="45"/>
+      <c r="B318" s="47"/>
+      <c r="C318" s="49"/>
+      <c r="D318" s="49"/>
       <c r="E318" s="2" t="s">
         <v>102</v>
       </c>
@@ -8353,12 +8463,12 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="57"/>
-      <c r="B319" s="59"/>
-      <c r="C319" s="55" t="s">
+      <c r="A319" s="45"/>
+      <c r="B319" s="47"/>
+      <c r="C319" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D319" s="55" t="s">
+      <c r="D319" s="50" t="s">
         <v>173</v>
       </c>
       <c r="E319" s="32" t="s">
@@ -8375,10 +8485,10 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="57"/>
-      <c r="B320" s="59"/>
-      <c r="C320" s="55"/>
-      <c r="D320" s="55"/>
+      <c r="A320" s="45"/>
+      <c r="B320" s="47"/>
+      <c r="C320" s="50"/>
+      <c r="D320" s="50"/>
       <c r="E320" s="32" t="s">
         <v>83</v>
       </c>
@@ -8393,10 +8503,10 @@
       </c>
     </row>
     <row r="321" spans="1:8">
-      <c r="A321" s="57"/>
-      <c r="B321" s="59"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="55"/>
+      <c r="A321" s="45"/>
+      <c r="B321" s="47"/>
+      <c r="C321" s="50"/>
+      <c r="D321" s="50"/>
       <c r="E321" s="32" t="s">
         <v>83</v>
       </c>
@@ -8411,12 +8521,12 @@
       </c>
     </row>
     <row r="322" spans="1:8">
-      <c r="A322" s="57"/>
-      <c r="B322" s="59"/>
-      <c r="C322" s="56" t="s">
+      <c r="A322" s="45"/>
+      <c r="B322" s="47"/>
+      <c r="C322" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="D322" s="56" t="s">
+      <c r="D322" s="49" t="s">
         <v>178</v>
       </c>
       <c r="E322" s="2" t="s">
@@ -8433,10 +8543,10 @@
       </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="A323" s="57"/>
-      <c r="B323" s="59"/>
-      <c r="C323" s="56"/>
-      <c r="D323" s="56"/>
+      <c r="A323" s="45"/>
+      <c r="B323" s="47"/>
+      <c r="C323" s="49"/>
+      <c r="D323" s="49"/>
       <c r="E323" s="2" t="s">
         <v>102</v>
       </c>
@@ -8451,10 +8561,10 @@
       </c>
     </row>
     <row r="324" spans="1:8">
-      <c r="A324" s="57"/>
-      <c r="B324" s="59"/>
-      <c r="C324" s="56"/>
-      <c r="D324" s="56"/>
+      <c r="A324" s="45"/>
+      <c r="B324" s="47"/>
+      <c r="C324" s="49"/>
+      <c r="D324" s="49"/>
       <c r="E324" s="2" t="s">
         <v>102</v>
       </c>
@@ -8469,10 +8579,10 @@
       </c>
     </row>
     <row r="325" spans="1:8">
-      <c r="A325" s="57"/>
-      <c r="B325" s="59"/>
-      <c r="C325" s="56"/>
-      <c r="D325" s="56"/>
+      <c r="A325" s="45"/>
+      <c r="B325" s="47"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="49"/>
       <c r="E325" s="2" t="s">
         <v>102</v>
       </c>
@@ -8487,12 +8597,12 @@
       </c>
     </row>
     <row r="326" spans="1:8">
-      <c r="A326" s="57"/>
-      <c r="B326" s="59"/>
-      <c r="C326" s="55" t="s">
+      <c r="A326" s="45"/>
+      <c r="B326" s="47"/>
+      <c r="C326" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D326" s="55" t="s">
+      <c r="D326" s="50" t="s">
         <v>178</v>
       </c>
       <c r="E326" s="32" t="s">
@@ -8509,10 +8619,10 @@
       </c>
     </row>
     <row r="327" spans="1:8">
-      <c r="A327" s="57"/>
-      <c r="B327" s="59"/>
-      <c r="C327" s="55"/>
-      <c r="D327" s="55"/>
+      <c r="A327" s="45"/>
+      <c r="B327" s="47"/>
+      <c r="C327" s="50"/>
+      <c r="D327" s="50"/>
       <c r="E327" s="32" t="s">
         <v>83</v>
       </c>
@@ -8527,10 +8637,10 @@
       </c>
     </row>
     <row r="328" spans="1:8">
-      <c r="A328" s="57"/>
-      <c r="B328" s="59"/>
-      <c r="C328" s="55"/>
-      <c r="D328" s="55"/>
+      <c r="A328" s="45"/>
+      <c r="B328" s="47"/>
+      <c r="C328" s="50"/>
+      <c r="D328" s="50"/>
       <c r="E328" s="32" t="s">
         <v>83</v>
       </c>
@@ -8545,12 +8655,12 @@
       </c>
     </row>
     <row r="329" spans="1:8">
-      <c r="A329" s="57"/>
-      <c r="B329" s="59"/>
-      <c r="C329" s="56" t="s">
+      <c r="A329" s="45"/>
+      <c r="B329" s="47"/>
+      <c r="C329" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D329" s="56" t="s">
+      <c r="D329" s="49" t="s">
         <v>195</v>
       </c>
       <c r="E329" s="2" t="s">
@@ -8567,10 +8677,10 @@
       </c>
     </row>
     <row r="330" spans="1:8">
-      <c r="A330" s="57"/>
-      <c r="B330" s="59"/>
-      <c r="C330" s="56"/>
-      <c r="D330" s="56"/>
+      <c r="A330" s="45"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="49"/>
       <c r="E330" s="2" t="s">
         <v>74</v>
       </c>
@@ -8585,10 +8695,10 @@
       </c>
     </row>
     <row r="331" spans="1:8">
-      <c r="A331" s="57"/>
-      <c r="B331" s="59"/>
-      <c r="C331" s="56"/>
-      <c r="D331" s="56"/>
+      <c r="A331" s="45"/>
+      <c r="B331" s="47"/>
+      <c r="C331" s="49"/>
+      <c r="D331" s="49"/>
       <c r="E331" s="2" t="s">
         <v>74</v>
       </c>
@@ -8603,10 +8713,10 @@
       </c>
     </row>
     <row r="332" spans="1:8">
-      <c r="A332" s="57"/>
-      <c r="B332" s="59"/>
-      <c r="C332" s="56"/>
-      <c r="D332" s="56"/>
+      <c r="A332" s="45"/>
+      <c r="B332" s="47"/>
+      <c r="C332" s="49"/>
+      <c r="D332" s="49"/>
       <c r="E332" s="2" t="s">
         <v>74</v>
       </c>
@@ -8621,10 +8731,10 @@
       </c>
     </row>
     <row r="333" spans="1:8">
-      <c r="A333" s="57"/>
-      <c r="B333" s="59"/>
-      <c r="C333" s="56"/>
-      <c r="D333" s="56"/>
+      <c r="A333" s="45"/>
+      <c r="B333" s="47"/>
+      <c r="C333" s="49"/>
+      <c r="D333" s="49"/>
       <c r="E333" s="2" t="s">
         <v>74</v>
       </c>
@@ -8639,10 +8749,10 @@
       </c>
     </row>
     <row r="334" spans="1:8">
-      <c r="A334" s="57"/>
-      <c r="B334" s="59"/>
-      <c r="C334" s="56"/>
-      <c r="D334" s="56"/>
+      <c r="A334" s="45"/>
+      <c r="B334" s="47"/>
+      <c r="C334" s="49"/>
+      <c r="D334" s="49"/>
       <c r="E334" s="2" t="s">
         <v>74</v>
       </c>
@@ -8657,10 +8767,10 @@
       </c>
     </row>
     <row r="335" spans="1:8">
-      <c r="A335" s="57"/>
-      <c r="B335" s="59"/>
-      <c r="C335" s="56"/>
-      <c r="D335" s="56"/>
+      <c r="A335" s="45"/>
+      <c r="B335" s="47"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="49"/>
       <c r="E335" s="2" t="s">
         <v>74</v>
       </c>
@@ -8675,10 +8785,10 @@
       </c>
     </row>
     <row r="336" spans="1:8">
-      <c r="A336" s="57"/>
-      <c r="B336" s="59"/>
-      <c r="C336" s="56"/>
-      <c r="D336" s="56"/>
+      <c r="A336" s="45"/>
+      <c r="B336" s="47"/>
+      <c r="C336" s="49"/>
+      <c r="D336" s="49"/>
       <c r="E336" s="2" t="s">
         <v>74</v>
       </c>
@@ -8693,10 +8803,10 @@
       </c>
     </row>
     <row r="337" spans="1:8">
-      <c r="A337" s="57"/>
-      <c r="B337" s="59"/>
-      <c r="C337" s="56"/>
-      <c r="D337" s="56"/>
+      <c r="A337" s="45"/>
+      <c r="B337" s="47"/>
+      <c r="C337" s="49"/>
+      <c r="D337" s="49"/>
       <c r="E337" s="2" t="s">
         <v>74</v>
       </c>
@@ -8711,12 +8821,12 @@
       </c>
     </row>
     <row r="338" spans="1:8">
-      <c r="A338" s="57"/>
-      <c r="B338" s="59"/>
-      <c r="C338" s="55" t="s">
+      <c r="A338" s="45"/>
+      <c r="B338" s="47"/>
+      <c r="C338" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D338" s="55" t="s">
+      <c r="D338" s="50" t="s">
         <v>195</v>
       </c>
       <c r="E338" s="32" t="s">
@@ -8733,10 +8843,10 @@
       </c>
     </row>
     <row r="339" spans="1:8">
-      <c r="A339" s="57"/>
-      <c r="B339" s="59"/>
-      <c r="C339" s="55"/>
-      <c r="D339" s="55"/>
+      <c r="A339" s="45"/>
+      <c r="B339" s="47"/>
+      <c r="C339" s="50"/>
+      <c r="D339" s="50"/>
       <c r="E339" s="32" t="s">
         <v>83</v>
       </c>
@@ -8751,10 +8861,10 @@
       </c>
     </row>
     <row r="340" spans="1:8">
-      <c r="A340" s="57"/>
-      <c r="B340" s="59"/>
-      <c r="C340" s="55"/>
-      <c r="D340" s="55"/>
+      <c r="A340" s="45"/>
+      <c r="B340" s="47"/>
+      <c r="C340" s="50"/>
+      <c r="D340" s="50"/>
       <c r="E340" s="32" t="s">
         <v>83</v>
       </c>
@@ -8769,10 +8879,10 @@
       </c>
     </row>
     <row r="341" spans="1:8">
-      <c r="A341" s="57"/>
-      <c r="B341" s="59"/>
-      <c r="C341" s="55"/>
-      <c r="D341" s="55"/>
+      <c r="A341" s="45"/>
+      <c r="B341" s="47"/>
+      <c r="C341" s="50"/>
+      <c r="D341" s="50"/>
       <c r="E341" s="32" t="s">
         <v>83</v>
       </c>
@@ -8787,10 +8897,10 @@
       </c>
     </row>
     <row r="342" spans="1:8">
-      <c r="A342" s="57"/>
-      <c r="B342" s="59"/>
-      <c r="C342" s="55"/>
-      <c r="D342" s="55"/>
+      <c r="A342" s="45"/>
+      <c r="B342" s="47"/>
+      <c r="C342" s="50"/>
+      <c r="D342" s="50"/>
       <c r="E342" s="32" t="s">
         <v>83</v>
       </c>
@@ -8805,10 +8915,10 @@
       </c>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" s="57"/>
-      <c r="B343" s="59"/>
-      <c r="C343" s="55"/>
-      <c r="D343" s="55"/>
+      <c r="A343" s="45"/>
+      <c r="B343" s="47"/>
+      <c r="C343" s="50"/>
+      <c r="D343" s="50"/>
       <c r="E343" s="32" t="s">
         <v>83</v>
       </c>
@@ -8823,10 +8933,10 @@
       </c>
     </row>
     <row r="344" spans="1:8">
-      <c r="A344" s="57"/>
-      <c r="B344" s="59"/>
-      <c r="C344" s="55"/>
-      <c r="D344" s="55"/>
+      <c r="A344" s="45"/>
+      <c r="B344" s="47"/>
+      <c r="C344" s="50"/>
+      <c r="D344" s="50"/>
       <c r="E344" s="32" t="s">
         <v>83</v>
       </c>
@@ -8841,12 +8951,12 @@
       </c>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" s="57"/>
-      <c r="B345" s="59"/>
-      <c r="C345" s="56" t="s">
+      <c r="A345" s="45"/>
+      <c r="B345" s="47"/>
+      <c r="C345" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D345" s="56" t="s">
+      <c r="D345" s="49" t="s">
         <v>211</v>
       </c>
       <c r="E345" s="2" t="s">
@@ -8863,10 +8973,10 @@
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8">
-      <c r="A346" s="57"/>
-      <c r="B346" s="59"/>
-      <c r="C346" s="56"/>
-      <c r="D346" s="56"/>
+      <c r="A346" s="45"/>
+      <c r="B346" s="47"/>
+      <c r="C346" s="49"/>
+      <c r="D346" s="49"/>
       <c r="E346" s="2" t="s">
         <v>83</v>
       </c>
@@ -8881,10 +8991,10 @@
       </c>
     </row>
     <row r="347" spans="1:8">
-      <c r="A347" s="57"/>
-      <c r="B347" s="59"/>
-      <c r="C347" s="56"/>
-      <c r="D347" s="56"/>
+      <c r="A347" s="45"/>
+      <c r="B347" s="47"/>
+      <c r="C347" s="49"/>
+      <c r="D347" s="49"/>
       <c r="E347" s="2" t="s">
         <v>83</v>
       </c>
@@ -8899,10 +9009,10 @@
       </c>
     </row>
     <row r="348" spans="1:8" ht="28.8">
-      <c r="A348" s="57"/>
-      <c r="B348" s="59"/>
-      <c r="C348" s="56"/>
-      <c r="D348" s="56"/>
+      <c r="A348" s="45"/>
+      <c r="B348" s="47"/>
+      <c r="C348" s="49"/>
+      <c r="D348" s="49"/>
       <c r="E348" s="2" t="s">
         <v>83</v>
       </c>
@@ -8917,10 +9027,10 @@
       </c>
     </row>
     <row r="349" spans="1:8" ht="28.8">
-      <c r="A349" s="57"/>
-      <c r="B349" s="59"/>
-      <c r="C349" s="56"/>
-      <c r="D349" s="56"/>
+      <c r="A349" s="45"/>
+      <c r="B349" s="47"/>
+      <c r="C349" s="49"/>
+      <c r="D349" s="49"/>
       <c r="E349" s="2" t="s">
         <v>83</v>
       </c>
@@ -8935,10 +9045,10 @@
       </c>
     </row>
     <row r="350" spans="1:8" ht="43.2">
-      <c r="A350" s="57"/>
-      <c r="B350" s="59"/>
-      <c r="C350" s="56"/>
-      <c r="D350" s="56"/>
+      <c r="A350" s="45"/>
+      <c r="B350" s="47"/>
+      <c r="C350" s="49"/>
+      <c r="D350" s="49"/>
       <c r="E350" s="2" t="s">
         <v>83</v>
       </c>
@@ -8953,10 +9063,10 @@
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8">
-      <c r="A351" s="57"/>
-      <c r="B351" s="59"/>
-      <c r="C351" s="56"/>
-      <c r="D351" s="56"/>
+      <c r="A351" s="45"/>
+      <c r="B351" s="47"/>
+      <c r="C351" s="49"/>
+      <c r="D351" s="49"/>
       <c r="E351" s="2" t="s">
         <v>83</v>
       </c>
@@ -8971,10 +9081,10 @@
       </c>
     </row>
     <row r="352" spans="1:8" ht="43.2">
-      <c r="A352" s="57"/>
-      <c r="B352" s="59"/>
-      <c r="C352" s="56"/>
-      <c r="D352" s="56"/>
+      <c r="A352" s="45"/>
+      <c r="B352" s="47"/>
+      <c r="C352" s="49"/>
+      <c r="D352" s="49"/>
       <c r="E352" s="2" t="s">
         <v>83</v>
       </c>
@@ -8989,12 +9099,12 @@
       </c>
     </row>
     <row r="353" spans="1:8" ht="28.8">
-      <c r="A353" s="57"/>
-      <c r="B353" s="59"/>
-      <c r="C353" s="55" t="s">
+      <c r="A353" s="45"/>
+      <c r="B353" s="47"/>
+      <c r="C353" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D353" s="55" t="s">
+      <c r="D353" s="50" t="s">
         <v>210</v>
       </c>
       <c r="E353" s="32" t="s">
@@ -9011,10 +9121,10 @@
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8">
-      <c r="A354" s="57"/>
-      <c r="B354" s="59"/>
-      <c r="C354" s="55"/>
-      <c r="D354" s="55"/>
+      <c r="A354" s="45"/>
+      <c r="B354" s="47"/>
+      <c r="C354" s="50"/>
+      <c r="D354" s="50"/>
       <c r="E354" s="32" t="s">
         <v>74</v>
       </c>
@@ -9029,10 +9139,10 @@
       </c>
     </row>
     <row r="355" spans="1:8" ht="57.6">
-      <c r="A355" s="57"/>
-      <c r="B355" s="59"/>
-      <c r="C355" s="55"/>
-      <c r="D355" s="55"/>
+      <c r="A355" s="45"/>
+      <c r="B355" s="47"/>
+      <c r="C355" s="50"/>
+      <c r="D355" s="50"/>
       <c r="E355" s="32" t="s">
         <v>74</v>
       </c>
@@ -9047,10 +9157,10 @@
       </c>
     </row>
     <row r="356" spans="1:8" ht="43.2">
-      <c r="A356" s="57"/>
-      <c r="B356" s="59"/>
-      <c r="C356" s="55"/>
-      <c r="D356" s="55"/>
+      <c r="A356" s="45"/>
+      <c r="B356" s="47"/>
+      <c r="C356" s="50"/>
+      <c r="D356" s="50"/>
       <c r="E356" s="32" t="s">
         <v>74</v>
       </c>
@@ -9065,10 +9175,10 @@
       </c>
     </row>
     <row r="357" spans="1:8">
-      <c r="A357" s="57"/>
-      <c r="B357" s="59"/>
-      <c r="C357" s="55"/>
-      <c r="D357" s="55"/>
+      <c r="A357" s="45"/>
+      <c r="B357" s="47"/>
+      <c r="C357" s="50"/>
+      <c r="D357" s="50"/>
       <c r="E357" s="32" t="s">
         <v>74</v>
       </c>
@@ -9083,10 +9193,10 @@
       </c>
     </row>
     <row r="358" spans="1:8" ht="43.2">
-      <c r="A358" s="57"/>
-      <c r="B358" s="59"/>
-      <c r="C358" s="55"/>
-      <c r="D358" s="55"/>
+      <c r="A358" s="45"/>
+      <c r="B358" s="47"/>
+      <c r="C358" s="50"/>
+      <c r="D358" s="50"/>
       <c r="E358" s="32" t="s">
         <v>74</v>
       </c>
@@ -9101,10 +9211,10 @@
       </c>
     </row>
     <row r="359" spans="1:8" ht="57.6">
-      <c r="A359" s="57"/>
-      <c r="B359" s="59"/>
-      <c r="C359" s="55"/>
-      <c r="D359" s="55"/>
+      <c r="A359" s="45"/>
+      <c r="B359" s="47"/>
+      <c r="C359" s="50"/>
+      <c r="D359" s="50"/>
       <c r="E359" s="32" t="s">
         <v>74</v>
       </c>
@@ -9119,10 +9229,10 @@
       </c>
     </row>
     <row r="360" spans="1:8" ht="43.2">
-      <c r="A360" s="57"/>
-      <c r="B360" s="59"/>
-      <c r="C360" s="55"/>
-      <c r="D360" s="55"/>
+      <c r="A360" s="45"/>
+      <c r="B360" s="47"/>
+      <c r="C360" s="50"/>
+      <c r="D360" s="50"/>
       <c r="E360" s="32" t="s">
         <v>74</v>
       </c>
@@ -9137,10 +9247,10 @@
       </c>
     </row>
     <row r="361" spans="1:8" ht="43.2">
-      <c r="A361" s="57"/>
-      <c r="B361" s="60"/>
-      <c r="C361" s="55"/>
-      <c r="D361" s="55"/>
+      <c r="A361" s="45"/>
+      <c r="B361" s="48"/>
+      <c r="C361" s="50"/>
+      <c r="D361" s="50"/>
       <c r="E361" s="32" t="s">
         <v>74</v>
       </c>
@@ -9555,6 +9665,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C184:C206"/>
+    <mergeCell ref="C207:C235"/>
+    <mergeCell ref="D207:D235"/>
+    <mergeCell ref="D184:D206"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D78:D84"/>
+    <mergeCell ref="D90:D132"/>
+    <mergeCell ref="D133:D183"/>
+    <mergeCell ref="C90:C132"/>
+    <mergeCell ref="C133:C183"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="D40:D51"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="A61:A249"/>
+    <mergeCell ref="B2:B60"/>
+    <mergeCell ref="B61:B249"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="C236:C242"/>
+    <mergeCell ref="D236:D242"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A2:A60"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="C78:C84"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="C250:C255"/>
+    <mergeCell ref="D256:D260"/>
+    <mergeCell ref="C256:C260"/>
+    <mergeCell ref="C243:C249"/>
+    <mergeCell ref="D243:D249"/>
+    <mergeCell ref="C319:C321"/>
+    <mergeCell ref="C322:C325"/>
+    <mergeCell ref="D261:D285"/>
+    <mergeCell ref="C261:C285"/>
+    <mergeCell ref="D286:D313"/>
+    <mergeCell ref="C286:C313"/>
     <mergeCell ref="A250:A361"/>
     <mergeCell ref="B250:B361"/>
     <mergeCell ref="C345:C352"/>
@@ -9571,56 +9731,6 @@
     <mergeCell ref="D314:D318"/>
     <mergeCell ref="D319:D321"/>
     <mergeCell ref="C314:C318"/>
-    <mergeCell ref="C319:C321"/>
-    <mergeCell ref="C322:C325"/>
-    <mergeCell ref="D261:D285"/>
-    <mergeCell ref="C261:C285"/>
-    <mergeCell ref="D286:D313"/>
-    <mergeCell ref="C286:C313"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="C250:C255"/>
-    <mergeCell ref="D256:D260"/>
-    <mergeCell ref="C256:C260"/>
-    <mergeCell ref="C243:C249"/>
-    <mergeCell ref="D243:D249"/>
-    <mergeCell ref="A61:A249"/>
-    <mergeCell ref="B2:B60"/>
-    <mergeCell ref="B61:B249"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="C236:C242"/>
-    <mergeCell ref="D236:D242"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A2:A60"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C78:C84"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D2:D19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="D40:D51"/>
-    <mergeCell ref="C40:C51"/>
-    <mergeCell ref="D78:D84"/>
-    <mergeCell ref="D90:D132"/>
-    <mergeCell ref="D133:D183"/>
-    <mergeCell ref="C90:C132"/>
-    <mergeCell ref="C133:C183"/>
-    <mergeCell ref="C184:C206"/>
-    <mergeCell ref="C207:C235"/>
-    <mergeCell ref="D207:D235"/>
-    <mergeCell ref="D184:D206"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9629,1322 +9739,1320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B5E017-09FB-41D1-94BB-B9CFD380E003}">
-  <dimension ref="A1:AU376"/>
+  <dimension ref="A1:G376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E46" sqref="A1:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="64"/>
-    <col min="2" max="2" width="29.5546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="25" style="64" customWidth="1"/>
-    <col min="5" max="5" width="119" style="64" customWidth="1"/>
-    <col min="6" max="47" width="8.88671875" style="64"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:7" ht="31.8" thickBot="1">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A2" s="70">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.6">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A3" s="70">
+    <row r="3" spans="1:7" ht="27.6">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="70">
+    <row r="4" spans="1:7" ht="27.6">
+      <c r="A4" s="69">
         <v>1</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="70">
+    <row r="5" spans="1:7" ht="27.6">
+      <c r="A5" s="69">
         <v>1</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="70">
+    <row r="6" spans="1:7" ht="27.6">
+      <c r="A6" s="69">
         <v>1</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E6" s="70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="70">
+    <row r="7" spans="1:7" ht="27.6">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.8" customHeight="1">
-      <c r="A8" s="70">
+    <row r="8" spans="1:7" ht="42" thickBot="1">
+      <c r="A8" s="71">
         <v>1</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="72">
         <v>7</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="70" t="s">
+      <c r="D8" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="70">
+    <row r="9" spans="1:7" ht="27.6">
+      <c r="A9" s="67">
         <v>2</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="19">
         <v>8</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4">
+      <c r="A10" s="69">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="70">
+    <row r="11" spans="1:7" ht="27.6">
+      <c r="A11" s="69">
         <v>2</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C11" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D11" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E11" s="70" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="70">
+    <row r="12" spans="1:7" ht="27.6">
+      <c r="A12" s="69">
         <v>2</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="70">
-        <v>2</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="67">
+      <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="70">
+    <row r="13" spans="1:7" ht="27.6">
+      <c r="A13" s="69">
         <v>2</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6">
+      <c r="A14" s="69">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E14" s="70" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="70">
+    <row r="15" spans="1:7" ht="27.6">
+      <c r="A15" s="69">
         <v>2</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B15" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="70">
-        <v>2</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="67">
+      <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="70">
+    <row r="16" spans="1:7" ht="41.4">
+      <c r="A16" s="69">
         <v>2</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="70">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6">
+      <c r="A17" s="69">
         <v>2</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="6">
         <v>9</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="70">
+    <row r="18" spans="1:5" ht="27.6">
+      <c r="A18" s="69">
         <v>2</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="70">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41.4">
+      <c r="A19" s="69">
         <v>2</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="6">
         <v>10</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="70">
+    <row r="20" spans="1:5" ht="27.6">
+      <c r="A20" s="69">
         <v>2</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="67" t="s">
+      <c r="C20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="70">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.6">
+      <c r="A21" s="69">
         <v>2</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="6">
         <v>10</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E21" s="70" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="70">
+    <row r="22" spans="1:5" ht="41.4">
+      <c r="A22" s="69">
         <v>2</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="67" t="s">
+      <c r="C22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="70">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.4">
+      <c r="A23" s="69">
         <v>2</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="6">
         <v>11</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E23" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="70">
+    <row r="24" spans="1:5" ht="41.4">
+      <c r="A24" s="69">
         <v>2</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="70">
+    </row>
+    <row r="25" spans="1:5" ht="27.6">
+      <c r="A25" s="69">
         <v>2</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="6">
         <v>11</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E25" s="70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="70">
+    <row r="26" spans="1:5" ht="41.4">
+      <c r="A26" s="69">
         <v>2</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="67" t="s">
+      <c r="C26" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="70">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6">
+      <c r="A27" s="69">
         <v>2</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="6">
         <v>12</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E27" s="70" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="70">
+    <row r="28" spans="1:5" ht="41.4">
+      <c r="A28" s="69">
         <v>2</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="70">
+    </row>
+    <row r="29" spans="1:5" ht="27.6">
+      <c r="A29" s="69">
         <v>2</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="6">
         <v>12</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E29" s="70" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="70">
+    <row r="30" spans="1:5" ht="28.2" thickBot="1">
+      <c r="A30" s="71">
         <v>2</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="67" t="s">
+      <c r="C30" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="70">
+      <c r="E30" s="73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.6">
+      <c r="A31" s="67">
         <v>3</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="19">
         <v>13</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="68" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A32" s="70">
+    <row r="32" spans="1:5" ht="27.6">
+      <c r="A32" s="69">
         <v>3</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="6">
         <v>13</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E32" s="70" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="70">
+    <row r="33" spans="1:5" ht="27.6">
+      <c r="A33" s="69">
         <v>3</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="6">
         <v>14</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E33" s="70" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="70">
+    <row r="34" spans="1:5" ht="27.6">
+      <c r="A34" s="69">
         <v>3</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="6">
         <v>14</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E34" s="70" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="70">
+    <row r="35" spans="1:5" ht="27.6">
+      <c r="A35" s="69">
         <v>3</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="6">
         <v>15</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E35" s="70" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="70">
+    <row r="36" spans="1:5" ht="27.6">
+      <c r="A36" s="69">
         <v>3</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="6">
         <v>15</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E36" s="70" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="70">
+    <row r="37" spans="1:5" ht="41.4">
+      <c r="A37" s="69">
         <v>3</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="6">
         <v>16</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E37" s="70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="70">
+    <row r="38" spans="1:5" ht="41.4">
+      <c r="A38" s="69">
         <v>3</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="6">
         <v>16</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E38" s="70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="70">
+    <row r="39" spans="1:5" ht="41.4">
+      <c r="A39" s="69">
         <v>3</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="6">
         <v>17</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E39" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.6">
+      <c r="A40" s="69">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="70" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="70">
+    <row r="41" spans="1:5" ht="41.4">
+      <c r="A41" s="69">
         <v>3</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B41" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C40" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A41" s="70">
-        <v>3</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="C41" s="67">
+      <c r="C41" s="6">
         <v>17</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E41" s="70" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A42" s="70">
+    <row r="42" spans="1:5" ht="27.6">
+      <c r="A42" s="69">
         <v>3</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="E42" s="70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="70">
+    </row>
+    <row r="43" spans="1:5" ht="41.4">
+      <c r="A43" s="69">
         <v>3</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="6">
         <v>18</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E43" s="70" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="70">
+    <row r="44" spans="1:5" ht="27.6">
+      <c r="A44" s="69">
         <v>3</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="67" t="s">
+      <c r="C44" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="70">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="41.4">
+      <c r="A45" s="69">
         <v>3</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="6">
         <v>18</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E45" s="70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="70">
+    <row r="46" spans="1:5" ht="28.2" thickBot="1">
+      <c r="A46" s="71">
         <v>3</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="70" t="s">
+      <c r="C46" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="70" t="s">
-        <v>250</v>
+      <c r="E46" s="73" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="71"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="62"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
     </row>
     <row r="55" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A55" s="62"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="62"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="62"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="62"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="62"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="62"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="62"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="62"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="62"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="62"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="62"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="62"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="62"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="62"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="62"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="62"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="62"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A73" s="62"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="41"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="62"/>
-      <c r="B74" s="63"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="62"/>
-      <c r="B75" s="63"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="41"/>
     </row>
     <row r="76" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A76" s="62"/>
-      <c r="B76" s="63"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="62"/>
-      <c r="B77" s="63"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="41"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="62"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="62"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="41"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="62"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="63"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="41"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="62"/>
-      <c r="B83" s="63"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="41"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="62"/>
-      <c r="B84" s="63"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
     </row>
     <row r="85" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A85" s="62"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="62"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="41"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="62"/>
-      <c r="B87" s="63"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="41"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="62"/>
-      <c r="B88" s="63"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="62"/>
-      <c r="B89" s="63"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="41"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="62"/>
-      <c r="B90" s="63"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="41"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="62"/>
-      <c r="B91" s="63"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="41"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="62"/>
-      <c r="B92" s="63"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="41"/>
     </row>
     <row r="93" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A93" s="62"/>
-      <c r="B93" s="63"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="41"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="62"/>
-      <c r="B94" s="63"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="41"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="62"/>
-      <c r="B95" s="63"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="41"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="62"/>
-      <c r="B96" s="63"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="62"/>
-      <c r="B97" s="63"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="62"/>
-      <c r="B98" s="63"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="62"/>
-      <c r="B99" s="63"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="41"/>
     </row>
     <row r="100" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A100" s="62"/>
-      <c r="B100" s="63"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="41"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="62"/>
-      <c r="B101" s="63"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="41"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="62"/>
-      <c r="B102" s="63"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="41"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="62"/>
-      <c r="B103" s="63"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="41"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="62"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
     </row>
     <row r="105" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A105" s="62"/>
-      <c r="B105" s="63"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="41"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="62"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="62"/>
-      <c r="B107" s="63"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="62"/>
-      <c r="B108" s="63"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="62"/>
-      <c r="B109" s="63"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="62"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="62"/>
-      <c r="B111" s="63"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="41"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="62"/>
-      <c r="B112" s="63"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="41"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="62"/>
-      <c r="B113" s="63"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="41"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="62"/>
-      <c r="B114" s="63"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="41"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="62"/>
-      <c r="B115" s="63"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="41"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="62"/>
-      <c r="B116" s="63"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="41"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="62"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="62"/>
-      <c r="B118" s="63"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="41"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="62"/>
-      <c r="B119" s="63"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="41"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="62"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="41"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="62"/>
-      <c r="B121" s="63"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="41"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="62"/>
-      <c r="B122" s="63"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="41"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="62"/>
-      <c r="B123" s="63"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="41"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="62"/>
-      <c r="B124" s="63"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="41"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="62"/>
-      <c r="B125" s="63"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="41"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="62"/>
-      <c r="B126" s="63"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="41"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="62"/>
-      <c r="B127" s="63"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="41"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="62"/>
-      <c r="B128" s="63"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="62"/>
-      <c r="B129" s="63"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="41"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="62"/>
-      <c r="B130" s="63"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="41"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="62"/>
-      <c r="B131" s="63"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="41"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="62"/>
-      <c r="B132" s="63"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="41"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="62"/>
-      <c r="B133" s="63"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="41"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="62"/>
-      <c r="B134" s="63"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="41"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="62"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="63"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="62"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="62"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="62"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="63"/>
-      <c r="E138" s="63"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="62"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="63"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="62"/>
-      <c r="B140" s="63"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="41"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="62"/>
-      <c r="B141" s="63"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="41"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="62"/>
-      <c r="B142" s="63"/>
-      <c r="C142" s="63"/>
-      <c r="D142" s="63"/>
-      <c r="E142" s="63"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="62"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="62"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="63"/>
-      <c r="D144" s="63"/>
-      <c r="E144" s="63"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="62"/>
-      <c r="B145" s="63"/>
-      <c r="C145" s="63"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="63"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="62"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="62"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="63"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="63"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
     </row>
     <row r="148" spans="1:5" ht="14.4" customHeight="1"/>
     <row r="199" ht="14.4" customHeight="1"/>
@@ -10952,530 +11060,530 @@
     <row r="251" ht="14.4" customHeight="1"/>
     <row r="258" spans="1:5" ht="14.4" customHeight="1"/>
     <row r="259" spans="1:5">
-      <c r="A259" s="62"/>
-      <c r="B259" s="63"/>
-      <c r="C259" s="63"/>
-      <c r="D259" s="63"/>
-      <c r="E259" s="63"/>
+      <c r="A259" s="40"/>
+      <c r="B259" s="41"/>
+      <c r="C259" s="41"/>
+      <c r="D259" s="41"/>
+      <c r="E259" s="41"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="62"/>
-      <c r="B260" s="63"/>
-      <c r="C260" s="63"/>
-      <c r="D260" s="63"/>
-      <c r="E260" s="63"/>
+      <c r="A260" s="40"/>
+      <c r="B260" s="41"/>
+      <c r="C260" s="41"/>
+      <c r="D260" s="41"/>
+      <c r="E260" s="41"/>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="62"/>
-      <c r="B261" s="63"/>
-      <c r="C261" s="63"/>
-      <c r="D261" s="63"/>
-      <c r="E261" s="63"/>
+      <c r="A261" s="40"/>
+      <c r="B261" s="41"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="41"/>
+      <c r="E261" s="41"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="62"/>
-      <c r="B262" s="63"/>
-      <c r="C262" s="63"/>
-      <c r="D262" s="63"/>
-      <c r="E262" s="63"/>
+      <c r="A262" s="40"/>
+      <c r="B262" s="41"/>
+      <c r="C262" s="41"/>
+      <c r="D262" s="41"/>
+      <c r="E262" s="41"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="62"/>
-      <c r="B263" s="63"/>
-      <c r="C263" s="63"/>
-      <c r="D263" s="63"/>
-      <c r="E263" s="63"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="41"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="41"/>
+      <c r="E263" s="41"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="62"/>
-      <c r="B264" s="63"/>
-      <c r="C264" s="63"/>
-      <c r="D264" s="63"/>
-      <c r="E264" s="63"/>
+      <c r="A264" s="40"/>
+      <c r="B264" s="41"/>
+      <c r="C264" s="41"/>
+      <c r="D264" s="41"/>
+      <c r="E264" s="41"/>
     </row>
     <row r="265" spans="1:5" ht="14.4" customHeight="1"/>
     <row r="271" spans="1:5" ht="14.4" customHeight="1"/>
     <row r="276" spans="1:5" ht="14.4" customHeight="1"/>
     <row r="277" spans="1:5">
-      <c r="A277" s="65"/>
-      <c r="B277" s="66"/>
-      <c r="C277" s="63"/>
-      <c r="D277" s="63"/>
-      <c r="E277" s="63"/>
+      <c r="A277" s="42"/>
+      <c r="B277" s="43"/>
+      <c r="C277" s="41"/>
+      <c r="D277" s="41"/>
+      <c r="E277" s="41"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="65"/>
-      <c r="B278" s="66"/>
-      <c r="C278" s="63"/>
-      <c r="D278" s="63"/>
-      <c r="E278" s="63"/>
+      <c r="A278" s="42"/>
+      <c r="B278" s="43"/>
+      <c r="C278" s="41"/>
+      <c r="D278" s="41"/>
+      <c r="E278" s="41"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="65"/>
-      <c r="B279" s="66"/>
-      <c r="C279" s="63"/>
-      <c r="D279" s="63"/>
-      <c r="E279" s="63"/>
+      <c r="A279" s="42"/>
+      <c r="B279" s="43"/>
+      <c r="C279" s="41"/>
+      <c r="D279" s="41"/>
+      <c r="E279" s="41"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="65"/>
-      <c r="B280" s="66"/>
-      <c r="C280" s="63"/>
-      <c r="D280" s="63"/>
-      <c r="E280" s="63"/>
+      <c r="A280" s="42"/>
+      <c r="B280" s="43"/>
+      <c r="C280" s="41"/>
+      <c r="D280" s="41"/>
+      <c r="E280" s="41"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="65"/>
-      <c r="B281" s="66"/>
-      <c r="C281" s="63"/>
-      <c r="D281" s="63"/>
-      <c r="E281" s="63"/>
+      <c r="A281" s="42"/>
+      <c r="B281" s="43"/>
+      <c r="C281" s="41"/>
+      <c r="D281" s="41"/>
+      <c r="E281" s="41"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="65"/>
-      <c r="B282" s="66"/>
-      <c r="C282" s="63"/>
-      <c r="D282" s="63"/>
-      <c r="E282" s="63"/>
+      <c r="A282" s="42"/>
+      <c r="B282" s="43"/>
+      <c r="C282" s="41"/>
+      <c r="D282" s="41"/>
+      <c r="E282" s="41"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="65"/>
-      <c r="B283" s="66"/>
-      <c r="C283" s="63"/>
-      <c r="D283" s="63"/>
-      <c r="E283" s="63"/>
+      <c r="A283" s="42"/>
+      <c r="B283" s="43"/>
+      <c r="C283" s="41"/>
+      <c r="D283" s="41"/>
+      <c r="E283" s="41"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="65"/>
-      <c r="B284" s="66"/>
-      <c r="C284" s="63"/>
-      <c r="D284" s="63"/>
-      <c r="E284" s="63"/>
+      <c r="A284" s="42"/>
+      <c r="B284" s="43"/>
+      <c r="C284" s="41"/>
+      <c r="D284" s="41"/>
+      <c r="E284" s="41"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="65"/>
-      <c r="B285" s="66"/>
-      <c r="C285" s="63"/>
-      <c r="D285" s="63"/>
-      <c r="E285" s="63"/>
+      <c r="A285" s="42"/>
+      <c r="B285" s="43"/>
+      <c r="C285" s="41"/>
+      <c r="D285" s="41"/>
+      <c r="E285" s="41"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="65"/>
-      <c r="B286" s="66"/>
-      <c r="C286" s="63"/>
-      <c r="D286" s="63"/>
-      <c r="E286" s="63"/>
+      <c r="A286" s="42"/>
+      <c r="B286" s="43"/>
+      <c r="C286" s="41"/>
+      <c r="D286" s="41"/>
+      <c r="E286" s="41"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="65"/>
-      <c r="B287" s="66"/>
-      <c r="C287" s="63"/>
-      <c r="D287" s="63"/>
-      <c r="E287" s="63"/>
+      <c r="A287" s="42"/>
+      <c r="B287" s="43"/>
+      <c r="C287" s="41"/>
+      <c r="D287" s="41"/>
+      <c r="E287" s="41"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="65"/>
-      <c r="B288" s="66"/>
-      <c r="C288" s="63"/>
-      <c r="D288" s="63"/>
-      <c r="E288" s="63"/>
+      <c r="A288" s="42"/>
+      <c r="B288" s="43"/>
+      <c r="C288" s="41"/>
+      <c r="D288" s="41"/>
+      <c r="E288" s="41"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="65"/>
-      <c r="B289" s="66"/>
-      <c r="C289" s="63"/>
-      <c r="D289" s="63"/>
-      <c r="E289" s="63"/>
+      <c r="A289" s="42"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="41"/>
+      <c r="D289" s="41"/>
+      <c r="E289" s="41"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="65"/>
-      <c r="B290" s="66"/>
-      <c r="C290" s="63"/>
-      <c r="D290" s="63"/>
-      <c r="E290" s="63"/>
+      <c r="A290" s="42"/>
+      <c r="B290" s="43"/>
+      <c r="C290" s="41"/>
+      <c r="D290" s="41"/>
+      <c r="E290" s="41"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="65"/>
-      <c r="B291" s="66"/>
-      <c r="C291" s="63"/>
-      <c r="D291" s="63"/>
-      <c r="E291" s="63"/>
+      <c r="A291" s="42"/>
+      <c r="B291" s="43"/>
+      <c r="C291" s="41"/>
+      <c r="D291" s="41"/>
+      <c r="E291" s="41"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="65"/>
-      <c r="B292" s="66"/>
-      <c r="C292" s="63"/>
-      <c r="D292" s="63"/>
-      <c r="E292" s="63"/>
+      <c r="A292" s="42"/>
+      <c r="B292" s="43"/>
+      <c r="C292" s="41"/>
+      <c r="D292" s="41"/>
+      <c r="E292" s="41"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="65"/>
-      <c r="B293" s="66"/>
-      <c r="C293" s="63"/>
-      <c r="D293" s="63"/>
-      <c r="E293" s="63"/>
+      <c r="A293" s="42"/>
+      <c r="B293" s="43"/>
+      <c r="C293" s="41"/>
+      <c r="D293" s="41"/>
+      <c r="E293" s="41"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="65"/>
-      <c r="B294" s="66"/>
-      <c r="C294" s="63"/>
-      <c r="D294" s="63"/>
-      <c r="E294" s="63"/>
+      <c r="A294" s="42"/>
+      <c r="B294" s="43"/>
+      <c r="C294" s="41"/>
+      <c r="D294" s="41"/>
+      <c r="E294" s="41"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="65"/>
-      <c r="B295" s="66"/>
-      <c r="C295" s="63"/>
-      <c r="D295" s="63"/>
-      <c r="E295" s="63"/>
+      <c r="A295" s="42"/>
+      <c r="B295" s="43"/>
+      <c r="C295" s="41"/>
+      <c r="D295" s="41"/>
+      <c r="E295" s="41"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="65"/>
-      <c r="B296" s="66"/>
-      <c r="C296" s="63"/>
-      <c r="D296" s="63"/>
-      <c r="E296" s="63"/>
+      <c r="A296" s="42"/>
+      <c r="B296" s="43"/>
+      <c r="C296" s="41"/>
+      <c r="D296" s="41"/>
+      <c r="E296" s="41"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="65"/>
-      <c r="B297" s="66"/>
-      <c r="C297" s="63"/>
-      <c r="D297" s="63"/>
-      <c r="E297" s="63"/>
+      <c r="A297" s="42"/>
+      <c r="B297" s="43"/>
+      <c r="C297" s="41"/>
+      <c r="D297" s="41"/>
+      <c r="E297" s="41"/>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="65"/>
-      <c r="B298" s="66"/>
-      <c r="C298" s="63"/>
-      <c r="D298" s="63"/>
-      <c r="E298" s="63"/>
+      <c r="A298" s="42"/>
+      <c r="B298" s="43"/>
+      <c r="C298" s="41"/>
+      <c r="D298" s="41"/>
+      <c r="E298" s="41"/>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="65"/>
-      <c r="B299" s="66"/>
-      <c r="C299" s="63"/>
-      <c r="D299" s="63"/>
-      <c r="E299" s="63"/>
+      <c r="A299" s="42"/>
+      <c r="B299" s="43"/>
+      <c r="C299" s="41"/>
+      <c r="D299" s="41"/>
+      <c r="E299" s="41"/>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="65"/>
-      <c r="B300" s="66"/>
-      <c r="C300" s="63"/>
-      <c r="D300" s="63"/>
-      <c r="E300" s="63"/>
+      <c r="A300" s="42"/>
+      <c r="B300" s="43"/>
+      <c r="C300" s="41"/>
+      <c r="D300" s="41"/>
+      <c r="E300" s="41"/>
     </row>
     <row r="301" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A301" s="65"/>
-      <c r="B301" s="66"/>
+      <c r="A301" s="42"/>
+      <c r="B301" s="43"/>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="65"/>
-      <c r="B302" s="66"/>
+      <c r="A302" s="42"/>
+      <c r="B302" s="43"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="65"/>
-      <c r="B303" s="66"/>
+      <c r="A303" s="42"/>
+      <c r="B303" s="43"/>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="65"/>
-      <c r="B304" s="66"/>
+      <c r="A304" s="42"/>
+      <c r="B304" s="43"/>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="65"/>
-      <c r="B305" s="66"/>
+      <c r="A305" s="42"/>
+      <c r="B305" s="43"/>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="65"/>
-      <c r="B306" s="66"/>
+      <c r="A306" s="42"/>
+      <c r="B306" s="43"/>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="65"/>
-      <c r="B307" s="66"/>
+      <c r="A307" s="42"/>
+      <c r="B307" s="43"/>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="65"/>
-      <c r="B308" s="66"/>
+      <c r="A308" s="42"/>
+      <c r="B308" s="43"/>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="65"/>
-      <c r="B309" s="66"/>
+      <c r="A309" s="42"/>
+      <c r="B309" s="43"/>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="65"/>
-      <c r="B310" s="66"/>
+      <c r="A310" s="42"/>
+      <c r="B310" s="43"/>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="65"/>
-      <c r="B311" s="66"/>
+      <c r="A311" s="42"/>
+      <c r="B311" s="43"/>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="65"/>
-      <c r="B312" s="66"/>
+      <c r="A312" s="42"/>
+      <c r="B312" s="43"/>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="65"/>
-      <c r="B313" s="66"/>
+      <c r="A313" s="42"/>
+      <c r="B313" s="43"/>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="65"/>
-      <c r="B314" s="66"/>
+      <c r="A314" s="42"/>
+      <c r="B314" s="43"/>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="65"/>
-      <c r="B315" s="66"/>
+      <c r="A315" s="42"/>
+      <c r="B315" s="43"/>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="65"/>
-      <c r="B316" s="66"/>
+      <c r="A316" s="42"/>
+      <c r="B316" s="43"/>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="65"/>
-      <c r="B317" s="66"/>
+      <c r="A317" s="42"/>
+      <c r="B317" s="43"/>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="65"/>
-      <c r="B318" s="66"/>
+      <c r="A318" s="42"/>
+      <c r="B318" s="43"/>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="65"/>
-      <c r="B319" s="66"/>
+      <c r="A319" s="42"/>
+      <c r="B319" s="43"/>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="65"/>
-      <c r="B320" s="66"/>
+      <c r="A320" s="42"/>
+      <c r="B320" s="43"/>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="65"/>
-      <c r="B321" s="66"/>
+      <c r="A321" s="42"/>
+      <c r="B321" s="43"/>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="65"/>
-      <c r="B322" s="66"/>
+      <c r="A322" s="42"/>
+      <c r="B322" s="43"/>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="65"/>
-      <c r="B323" s="66"/>
+      <c r="A323" s="42"/>
+      <c r="B323" s="43"/>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="65"/>
-      <c r="B324" s="66"/>
+      <c r="A324" s="42"/>
+      <c r="B324" s="43"/>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="65"/>
-      <c r="B325" s="66"/>
+      <c r="A325" s="42"/>
+      <c r="B325" s="43"/>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="65"/>
-      <c r="B326" s="66"/>
+      <c r="A326" s="42"/>
+      <c r="B326" s="43"/>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="65"/>
-      <c r="B327" s="66"/>
+      <c r="A327" s="42"/>
+      <c r="B327" s="43"/>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="65"/>
-      <c r="B328" s="66"/>
+      <c r="A328" s="42"/>
+      <c r="B328" s="43"/>
     </row>
     <row r="329" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A329" s="65"/>
-      <c r="B329" s="66"/>
+      <c r="A329" s="42"/>
+      <c r="B329" s="43"/>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="65"/>
-      <c r="B330" s="66"/>
+      <c r="A330" s="42"/>
+      <c r="B330" s="43"/>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="65"/>
-      <c r="B331" s="66"/>
+      <c r="A331" s="42"/>
+      <c r="B331" s="43"/>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="65"/>
-      <c r="B332" s="66"/>
+      <c r="A332" s="42"/>
+      <c r="B332" s="43"/>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="65"/>
-      <c r="B333" s="66"/>
+      <c r="A333" s="42"/>
+      <c r="B333" s="43"/>
     </row>
     <row r="334" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A334" s="65"/>
-      <c r="B334" s="66"/>
+      <c r="A334" s="42"/>
+      <c r="B334" s="43"/>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="65"/>
-      <c r="B335" s="66"/>
+      <c r="A335" s="42"/>
+      <c r="B335" s="43"/>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="65"/>
-      <c r="B336" s="66"/>
+      <c r="A336" s="42"/>
+      <c r="B336" s="43"/>
     </row>
     <row r="337" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A337" s="65"/>
-      <c r="B337" s="66"/>
+      <c r="A337" s="42"/>
+      <c r="B337" s="43"/>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="65"/>
-      <c r="B338" s="66"/>
+      <c r="A338" s="42"/>
+      <c r="B338" s="43"/>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="65"/>
-      <c r="B339" s="66"/>
+      <c r="A339" s="42"/>
+      <c r="B339" s="43"/>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="65"/>
-      <c r="B340" s="66"/>
+      <c r="A340" s="42"/>
+      <c r="B340" s="43"/>
     </row>
     <row r="341" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A341" s="65"/>
-      <c r="B341" s="66"/>
+      <c r="A341" s="42"/>
+      <c r="B341" s="43"/>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="65"/>
-      <c r="B342" s="66"/>
+      <c r="A342" s="42"/>
+      <c r="B342" s="43"/>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="65"/>
-      <c r="B343" s="66"/>
+      <c r="A343" s="42"/>
+      <c r="B343" s="43"/>
     </row>
     <row r="344" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A344" s="65"/>
-      <c r="B344" s="66"/>
+      <c r="A344" s="42"/>
+      <c r="B344" s="43"/>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="65"/>
-      <c r="B345" s="66"/>
+      <c r="A345" s="42"/>
+      <c r="B345" s="43"/>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="65"/>
-      <c r="B346" s="66"/>
+      <c r="A346" s="42"/>
+      <c r="B346" s="43"/>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="65"/>
-      <c r="B347" s="66"/>
+      <c r="A347" s="42"/>
+      <c r="B347" s="43"/>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="65"/>
-      <c r="B348" s="66"/>
+      <c r="A348" s="42"/>
+      <c r="B348" s="43"/>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="65"/>
-      <c r="B349" s="66"/>
+      <c r="A349" s="42"/>
+      <c r="B349" s="43"/>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="65"/>
-      <c r="B350" s="66"/>
+      <c r="A350" s="42"/>
+      <c r="B350" s="43"/>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="65"/>
-      <c r="B351" s="66"/>
+      <c r="A351" s="42"/>
+      <c r="B351" s="43"/>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="65"/>
-      <c r="B352" s="66"/>
+      <c r="A352" s="42"/>
+      <c r="B352" s="43"/>
     </row>
     <row r="353" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A353" s="65"/>
-      <c r="B353" s="66"/>
+      <c r="A353" s="42"/>
+      <c r="B353" s="43"/>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="65"/>
-      <c r="B354" s="66"/>
+      <c r="A354" s="42"/>
+      <c r="B354" s="43"/>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="65"/>
-      <c r="B355" s="66"/>
+      <c r="A355" s="42"/>
+      <c r="B355" s="43"/>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="65"/>
-      <c r="B356" s="66"/>
+      <c r="A356" s="42"/>
+      <c r="B356" s="43"/>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="65"/>
-      <c r="B357" s="66"/>
+      <c r="A357" s="42"/>
+      <c r="B357" s="43"/>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="65"/>
-      <c r="B358" s="66"/>
+      <c r="A358" s="42"/>
+      <c r="B358" s="43"/>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="65"/>
-      <c r="B359" s="66"/>
+      <c r="A359" s="42"/>
+      <c r="B359" s="43"/>
     </row>
     <row r="360" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A360" s="65"/>
-      <c r="B360" s="66"/>
+      <c r="A360" s="42"/>
+      <c r="B360" s="43"/>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="65"/>
-      <c r="B361" s="66"/>
+      <c r="A361" s="42"/>
+      <c r="B361" s="43"/>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="65"/>
-      <c r="B362" s="66"/>
+      <c r="A362" s="42"/>
+      <c r="B362" s="43"/>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="65"/>
-      <c r="B363" s="66"/>
+      <c r="A363" s="42"/>
+      <c r="B363" s="43"/>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="65"/>
-      <c r="B364" s="66"/>
+      <c r="A364" s="42"/>
+      <c r="B364" s="43"/>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="65"/>
-      <c r="B365" s="66"/>
+      <c r="A365" s="42"/>
+      <c r="B365" s="43"/>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="65"/>
-      <c r="B366" s="66"/>
+      <c r="A366" s="42"/>
+      <c r="B366" s="43"/>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="65"/>
-      <c r="B367" s="66"/>
+      <c r="A367" s="42"/>
+      <c r="B367" s="43"/>
     </row>
     <row r="368" spans="1:2" ht="14.4" customHeight="1">
-      <c r="A368" s="65"/>
-      <c r="B368" s="66"/>
+      <c r="A368" s="42"/>
+      <c r="B368" s="43"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="65"/>
-      <c r="B369" s="66"/>
+      <c r="A369" s="42"/>
+      <c r="B369" s="43"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="65"/>
-      <c r="B370" s="66"/>
+      <c r="A370" s="42"/>
+      <c r="B370" s="43"/>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="65"/>
-      <c r="B371" s="66"/>
+      <c r="A371" s="42"/>
+      <c r="B371" s="43"/>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="65"/>
-      <c r="B372" s="66"/>
+      <c r="A372" s="42"/>
+      <c r="B372" s="43"/>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="65"/>
-      <c r="B373" s="66"/>
+      <c r="A373" s="42"/>
+      <c r="B373" s="43"/>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="65"/>
-      <c r="B374" s="66"/>
-      <c r="C374" s="66"/>
-      <c r="D374" s="66"/>
-      <c r="E374" s="66"/>
+      <c r="A374" s="42"/>
+      <c r="B374" s="43"/>
+      <c r="C374" s="43"/>
+      <c r="D374" s="43"/>
+      <c r="E374" s="43"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="65"/>
-      <c r="B375" s="66"/>
-      <c r="C375" s="66"/>
-      <c r="D375" s="66"/>
-      <c r="E375" s="66"/>
+      <c r="A375" s="42"/>
+      <c r="B375" s="43"/>
+      <c r="C375" s="43"/>
+      <c r="D375" s="43"/>
+      <c r="E375" s="43"/>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="65"/>
-      <c r="B376" s="66"/>
-      <c r="C376" s="66"/>
-      <c r="D376" s="66"/>
-      <c r="E376" s="66"/>
+      <c r="A376" s="42"/>
+      <c r="B376" s="43"/>
+      <c r="C376" s="43"/>
+      <c r="D376" s="43"/>
+      <c r="E376" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
